--- a/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2C_IT 207.xlsx
+++ b/DATA/Grades/Second Year/2nd Year/2nd Sem/BSIT 2C_IT 207.xlsx
@@ -74,7 +74,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhlOCuklkqThCYd6K1yRInO8CyKtA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgtwCXBaFIhMuooDhbVlZPZZeaS0Q=="/>
     </ext>
   </extLst>
 </comments>
@@ -1085,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1217,10 +1217,13 @@
     <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="8" fontId="13" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="22" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="5" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="9" fontId="15" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1238,7 +1241,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="8" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -1247,10 +1250,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1560,7 +1563,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1588,7 +1591,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1621,7 +1624,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1649,7 +1652,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2340,74 +2343,74 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55">
         <f t="shared" ref="F13:F60" si="1">X13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="56">
-        <v>88.0</v>
+        <v>50.0</v>
       </c>
       <c r="H13" s="56">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="I13" s="56">
-        <v>145.0</v>
+        <v>70.0</v>
       </c>
       <c r="J13" s="57">
         <f t="shared" ref="J13:J60" si="2">SUM(G13:I13)/SUM($G$11:$I$11)*50+50</f>
-        <v>87.15909091</v>
-      </c>
-      <c r="K13" s="56">
+        <v>69.88636364</v>
+      </c>
+      <c r="K13" s="58">
         <v>30.0</v>
       </c>
       <c r="L13" s="56">
-        <v>59.0</v>
-      </c>
-      <c r="M13" s="58">
+        <v>30.0</v>
+      </c>
+      <c r="M13" s="59">
         <f t="shared" ref="M13:M60" si="3">SUM(K13:L13)/SUM($K$11:$L$11)*50+50</f>
-        <v>87.08333333</v>
-      </c>
-      <c r="N13" s="59">
+        <v>75</v>
+      </c>
+      <c r="N13" s="60">
         <v>2.0</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="60">
         <v>5.0</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="60">
         <v>76.0</v>
       </c>
-      <c r="Q13" s="60">
+      <c r="Q13" s="61">
         <f t="shared" ref="Q13:Q60" si="4">SUM(N13:P13)/SUM($N$11:$P$11)*50+50</f>
         <v>88.0733945</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="62">
         <v>10.0</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="63">
         <f t="shared" ref="S13:S60" si="5">SUM(R13)/SUM($R$11)*50+50</f>
         <v>100</v>
       </c>
-      <c r="T13" s="63">
-        <v>90.0</v>
-      </c>
-      <c r="U13" s="63">
-        <v>56.0</v>
-      </c>
-      <c r="V13" s="64">
+      <c r="T13" s="64">
+        <v>40.0</v>
+      </c>
+      <c r="U13" s="64">
+        <v>50.0</v>
+      </c>
+      <c r="V13" s="65">
         <f t="shared" ref="V13:V60" si="6">(T13/$T$11*50+50)*0.5+(U13/$U$11*50+50)*0.5</f>
-        <v>86.5</v>
-      </c>
-      <c r="W13" s="65">
+        <v>72.5</v>
+      </c>
+      <c r="W13" s="66">
         <f t="shared" ref="W13:W60" si="7">(J13*0.3)+(M13*0.2)+(Q13*0.15)+(S13*0.05)+(V13*0.3)</f>
-        <v>87.72540311</v>
-      </c>
-      <c r="X13" s="65">
+        <v>75.92691827</v>
+      </c>
+      <c r="X13" s="66">
         <f>VLOOKUP(W13,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y13" s="65" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="66" t="str">
         <f t="shared" ref="Y13:Y60" si="8">IF(X13&lt;=3,"Passed","Failed")</f>
         <v>Passed</v>
       </c>
-      <c r="Z13" s="65"/>
+      <c r="Z13" s="66"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="52">
@@ -2427,72 +2430,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="58">
         <v>76.0</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="58">
         <v>66.0</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="58">
         <v>143.0</v>
       </c>
       <c r="J14" s="57">
         <f t="shared" si="2"/>
         <v>82.38636364</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="58">
         <v>39.0</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="58">
         <v>30.0</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="59">
         <f t="shared" si="3"/>
         <v>78.75</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="60">
         <v>2.0</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="60">
         <v>7.0</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="60">
         <v>70.0</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="61">
         <f t="shared" si="4"/>
         <v>86.23853211</v>
       </c>
-      <c r="R14" s="61">
+      <c r="R14" s="62">
         <v>4.0</v>
       </c>
-      <c r="S14" s="62">
+      <c r="S14" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T14" s="63">
+      <c r="T14" s="67">
         <v>76.0</v>
       </c>
-      <c r="U14" s="63">
+      <c r="U14" s="67">
         <v>99.0</v>
       </c>
-      <c r="V14" s="64">
+      <c r="V14" s="65">
         <f t="shared" si="6"/>
         <v>93.75</v>
       </c>
-      <c r="W14" s="65">
+      <c r="W14" s="66">
         <f t="shared" si="7"/>
         <v>85.02668891</v>
       </c>
-      <c r="X14" s="65">
+      <c r="X14" s="66">
         <f>VLOOKUP(W14,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y14" s="65" t="str">
+      <c r="Y14" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z14" s="65"/>
+      <c r="Z14" s="66"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="52">
@@ -2512,72 +2515,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="58">
         <v>118.0</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="58">
         <v>97.0</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="58">
         <v>185.0</v>
       </c>
       <c r="J15" s="57">
         <f t="shared" si="2"/>
         <v>95.45454545</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="58">
         <v>40.0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="58">
         <v>54.0</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="59">
         <f t="shared" si="3"/>
         <v>89.16666667</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="60">
         <v>2.0</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="60">
         <v>5.0</v>
       </c>
-      <c r="P15" s="66">
+      <c r="P15" s="68">
         <v>80.0</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="Q15" s="61">
         <f t="shared" si="4"/>
         <v>89.90825688</v>
       </c>
-      <c r="R15" s="61">
+      <c r="R15" s="62">
         <v>6.0</v>
       </c>
-      <c r="S15" s="62">
+      <c r="S15" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T15" s="63">
+      <c r="T15" s="67">
         <v>71.0</v>
       </c>
-      <c r="U15" s="63">
+      <c r="U15" s="67">
         <v>80.0</v>
       </c>
-      <c r="V15" s="64">
+      <c r="V15" s="65">
         <f t="shared" si="6"/>
         <v>87.75</v>
       </c>
-      <c r="W15" s="65">
+      <c r="W15" s="66">
         <f t="shared" si="7"/>
         <v>90.2809355</v>
       </c>
-      <c r="X15" s="65">
+      <c r="X15" s="66">
         <f>VLOOKUP(W15,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y15" s="65" t="str">
+      <c r="Y15" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z15" s="65"/>
+      <c r="Z15" s="66"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="52">
@@ -2595,74 +2598,74 @@
       <c r="E16" s="54"/>
       <c r="F16" s="55">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G16" s="56">
-        <v>62.0</v>
+        <v>50.0</v>
       </c>
       <c r="H16" s="56">
-        <v>117.0</v>
+        <v>50.0</v>
       </c>
       <c r="I16" s="56">
-        <v>127.0</v>
+        <v>70.0</v>
       </c>
       <c r="J16" s="57">
         <f t="shared" si="2"/>
-        <v>84.77272727</v>
+        <v>69.31818182</v>
       </c>
       <c r="K16" s="56">
-        <v>44.0</v>
-      </c>
-      <c r="L16" s="56">
+        <v>30.0</v>
+      </c>
+      <c r="L16" s="58">
         <v>33.0</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="59">
         <f t="shared" si="3"/>
-        <v>82.08333333</v>
-      </c>
-      <c r="N16" s="59">
+        <v>76.25</v>
+      </c>
+      <c r="N16" s="60">
         <v>1.0</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="60">
         <v>4.0</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="60">
         <v>53.0</v>
       </c>
-      <c r="Q16" s="60">
+      <c r="Q16" s="61">
         <f t="shared" si="4"/>
         <v>76.60550459</v>
       </c>
-      <c r="R16" s="61">
+      <c r="R16" s="62">
         <v>5.0</v>
       </c>
-      <c r="S16" s="62">
+      <c r="S16" s="63">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="T16" s="67">
+      <c r="T16" s="64">
         <v>58.0</v>
       </c>
-      <c r="U16" s="63">
+      <c r="U16" s="67">
         <v>55.0</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="65">
         <f t="shared" si="6"/>
         <v>78.25</v>
       </c>
-      <c r="W16" s="65">
+      <c r="W16" s="66">
         <f t="shared" si="7"/>
-        <v>80.56431054</v>
-      </c>
-      <c r="X16" s="65">
+        <v>74.76128023</v>
+      </c>
+      <c r="X16" s="66">
         <f>VLOOKUP(W16,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.5</v>
-      </c>
-      <c r="Y16" s="65" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="66" t="str">
         <f t="shared" si="8"/>
-        <v>Passed</v>
-      </c>
-      <c r="Z16" s="65"/>
+        <v>Failed</v>
+      </c>
+      <c r="Z16" s="66"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="52">
@@ -2682,72 +2685,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="58">
         <v>111.0</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="58">
         <v>80.0</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="58">
         <v>184.0</v>
       </c>
       <c r="J17" s="57">
         <f t="shared" si="2"/>
         <v>92.61363636</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="58">
         <v>47.0</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="58">
         <v>49.0</v>
       </c>
-      <c r="M17" s="58">
+      <c r="M17" s="59">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="60">
         <v>2.0</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="60">
         <v>7.0</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="60">
         <v>89.0</v>
       </c>
-      <c r="Q17" s="60">
+      <c r="Q17" s="61">
         <f t="shared" si="4"/>
         <v>94.95412844</v>
       </c>
-      <c r="R17" s="61">
+      <c r="R17" s="62">
         <v>10.0</v>
       </c>
-      <c r="S17" s="62">
+      <c r="S17" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T17" s="63">
+      <c r="T17" s="67">
         <v>52.0</v>
       </c>
-      <c r="U17" s="63">
+      <c r="U17" s="67">
         <v>91.0</v>
       </c>
-      <c r="V17" s="64">
+      <c r="V17" s="65">
         <f t="shared" si="6"/>
         <v>85.75</v>
       </c>
-      <c r="W17" s="65">
+      <c r="W17" s="66">
         <f t="shared" si="7"/>
         <v>90.75221018</v>
       </c>
-      <c r="X17" s="65">
+      <c r="X17" s="66">
         <f>VLOOKUP(W17,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y17" s="65" t="str">
+      <c r="Y17" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z17" s="65"/>
+      <c r="Z17" s="66"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="52">
@@ -2767,72 +2770,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="58">
         <v>85.0</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="58">
         <v>111.0</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="58">
         <v>158.0</v>
       </c>
       <c r="J18" s="57">
         <f t="shared" si="2"/>
         <v>90.22727273</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="58">
         <v>33.0</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="58">
         <v>49.0</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="59">
         <f t="shared" si="3"/>
         <v>84.16666667</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="60">
         <v>1.0</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="60">
         <v>4.0</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="60">
         <v>57.0</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="Q18" s="61">
         <f t="shared" si="4"/>
         <v>78.44036697</v>
       </c>
-      <c r="R18" s="61">
+      <c r="R18" s="62">
         <v>10.0</v>
       </c>
-      <c r="S18" s="62">
+      <c r="S18" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T18" s="63">
+      <c r="T18" s="67">
         <v>84.0</v>
       </c>
-      <c r="U18" s="63">
+      <c r="U18" s="67">
         <v>81.0</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="65">
         <f t="shared" si="6"/>
         <v>91.25</v>
       </c>
-      <c r="W18" s="65">
+      <c r="W18" s="66">
         <f t="shared" si="7"/>
         <v>88.0425702</v>
       </c>
-      <c r="X18" s="65">
+      <c r="X18" s="66">
         <f>VLOOKUP(W18,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y18" s="65" t="str">
+      <c r="Y18" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z18" s="65"/>
+      <c r="Z18" s="66"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="52">
@@ -2852,72 +2855,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="58">
         <v>80.0</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="58">
         <v>61.0</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="58">
         <v>199.0</v>
       </c>
       <c r="J19" s="57">
         <f t="shared" si="2"/>
         <v>88.63636364</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="58">
         <v>35.0</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="58">
         <v>40.0</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="59">
         <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="60">
         <v>1.0</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="60">
         <v>5.0</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="60">
         <v>63.0</v>
       </c>
-      <c r="Q19" s="60">
+      <c r="Q19" s="61">
         <f t="shared" si="4"/>
         <v>81.65137615</v>
       </c>
-      <c r="R19" s="61">
+      <c r="R19" s="62">
         <v>4.0</v>
       </c>
-      <c r="S19" s="62">
+      <c r="S19" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T19" s="63">
+      <c r="T19" s="67">
         <v>87.0</v>
       </c>
-      <c r="U19" s="63">
+      <c r="U19" s="67">
         <v>79.0</v>
       </c>
-      <c r="V19" s="64">
+      <c r="V19" s="65">
         <f t="shared" si="6"/>
         <v>91.5</v>
       </c>
-      <c r="W19" s="65">
+      <c r="W19" s="66">
         <f t="shared" si="7"/>
         <v>86.03861551</v>
       </c>
-      <c r="X19" s="65">
+      <c r="X19" s="66">
         <f>VLOOKUP(W19,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y19" s="65" t="str">
+      <c r="Y19" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z19" s="65"/>
+      <c r="Z19" s="66"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="52">
@@ -2935,72 +2938,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="58">
         <v>91.0</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="58">
         <v>112.0</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="58">
         <v>151.0</v>
       </c>
       <c r="J20" s="57">
         <f t="shared" si="2"/>
         <v>90.22727273</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="58">
         <v>52.0</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="58">
         <v>39.0</v>
       </c>
-      <c r="M20" s="58">
+      <c r="M20" s="59">
         <f t="shared" si="3"/>
         <v>87.91666667</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N20" s="60">
         <v>1.0</v>
       </c>
-      <c r="O20" s="59">
+      <c r="O20" s="60">
         <v>7.0</v>
       </c>
-      <c r="P20" s="59">
+      <c r="P20" s="60">
         <v>79.0</v>
       </c>
-      <c r="Q20" s="60">
+      <c r="Q20" s="61">
         <f t="shared" si="4"/>
         <v>89.90825688</v>
       </c>
-      <c r="R20" s="61">
+      <c r="R20" s="62">
         <v>7.0</v>
       </c>
-      <c r="S20" s="62">
+      <c r="S20" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T20" s="63">
+      <c r="T20" s="67">
         <v>92.0</v>
       </c>
-      <c r="U20" s="63">
+      <c r="U20" s="67">
         <v>52.0</v>
       </c>
-      <c r="V20" s="64">
+      <c r="V20" s="65">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="W20" s="65">
+      <c r="W20" s="66">
         <f t="shared" si="7"/>
         <v>88.18775368</v>
       </c>
-      <c r="X20" s="65">
+      <c r="X20" s="66">
         <f>VLOOKUP(W20,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y20" s="65" t="str">
+      <c r="Y20" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z20" s="65"/>
+      <c r="Z20" s="66"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="52">
@@ -3020,72 +3023,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="58">
         <v>64.0</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="58">
         <v>105.0</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="58">
         <v>157.0</v>
       </c>
       <c r="J21" s="57">
         <f t="shared" si="2"/>
         <v>87.04545455</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="58">
         <v>60.0</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="58">
         <v>50.0</v>
       </c>
-      <c r="M21" s="58">
+      <c r="M21" s="59">
         <f t="shared" si="3"/>
         <v>95.83333333</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="60">
         <v>1.0</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="60">
         <v>7.0</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="60">
         <v>58.0</v>
       </c>
-      <c r="Q21" s="60">
+      <c r="Q21" s="61">
         <f t="shared" si="4"/>
         <v>80.27522936</v>
       </c>
-      <c r="R21" s="61">
+      <c r="R21" s="62">
         <v>7.0</v>
       </c>
-      <c r="S21" s="62">
+      <c r="S21" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T21" s="63">
+      <c r="T21" s="67">
         <v>77.0</v>
       </c>
-      <c r="U21" s="63">
+      <c r="U21" s="67">
         <v>94.0</v>
       </c>
-      <c r="V21" s="64">
+      <c r="V21" s="65">
         <f t="shared" si="6"/>
         <v>92.75</v>
       </c>
-      <c r="W21" s="65">
+      <c r="W21" s="66">
         <f t="shared" si="7"/>
         <v>89.39658743</v>
       </c>
-      <c r="X21" s="65">
+      <c r="X21" s="66">
         <f>VLOOKUP(W21,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y21" s="65" t="str">
+      <c r="Y21" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z21" s="65"/>
+      <c r="Z21" s="66"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="52">
@@ -3105,72 +3108,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="58">
         <v>90.0</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="58">
         <v>81.0</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="58">
         <v>169.0</v>
       </c>
       <c r="J22" s="57">
         <f t="shared" si="2"/>
         <v>88.63636364</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="58">
         <v>50.0</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="58">
         <v>37.0</v>
       </c>
-      <c r="M22" s="58">
+      <c r="M22" s="59">
         <f t="shared" si="3"/>
         <v>86.25</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="60">
         <v>2.0</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="60">
         <v>4.0</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="60">
         <v>67.0</v>
       </c>
-      <c r="Q22" s="60">
+      <c r="Q22" s="61">
         <f t="shared" si="4"/>
         <v>83.48623853</v>
       </c>
-      <c r="R22" s="61">
+      <c r="R22" s="62">
         <v>10.0</v>
       </c>
-      <c r="S22" s="62">
+      <c r="S22" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T22" s="63">
+      <c r="T22" s="67">
         <v>89.0</v>
       </c>
-      <c r="U22" s="63">
+      <c r="U22" s="67">
         <v>50.0</v>
       </c>
-      <c r="V22" s="64">
+      <c r="V22" s="65">
         <f t="shared" si="6"/>
         <v>84.75</v>
       </c>
-      <c r="W22" s="65">
+      <c r="W22" s="66">
         <f t="shared" si="7"/>
         <v>86.78884487</v>
       </c>
-      <c r="X22" s="65">
+      <c r="X22" s="66">
         <f>VLOOKUP(W22,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y22" s="65" t="str">
+      <c r="Y22" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z22" s="65"/>
+      <c r="Z22" s="66"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="52">
@@ -3190,72 +3193,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="58">
         <v>61.0</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="58">
         <v>91.0</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="58">
         <v>134.0</v>
       </c>
       <c r="J23" s="57">
         <f t="shared" si="2"/>
         <v>82.5</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="58">
         <v>55.0</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="58">
         <v>51.0</v>
       </c>
-      <c r="M23" s="58">
+      <c r="M23" s="59">
         <f t="shared" si="3"/>
         <v>94.16666667</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="60">
         <v>1.0</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="60">
         <v>5.0</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="60">
         <v>65.0</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="61">
         <f t="shared" si="4"/>
         <v>82.56880734</v>
       </c>
-      <c r="R23" s="61">
+      <c r="R23" s="62">
         <v>7.0</v>
       </c>
-      <c r="S23" s="62">
+      <c r="S23" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T23" s="63">
+      <c r="T23" s="67">
         <v>82.0</v>
       </c>
-      <c r="U23" s="63">
+      <c r="U23" s="67">
         <v>89.0</v>
       </c>
-      <c r="V23" s="64">
+      <c r="V23" s="65">
         <f t="shared" si="6"/>
         <v>92.75</v>
       </c>
-      <c r="W23" s="65">
+      <c r="W23" s="66">
         <f t="shared" si="7"/>
         <v>88.04365443</v>
       </c>
-      <c r="X23" s="65">
+      <c r="X23" s="66">
         <f>VLOOKUP(W23,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y23" s="65" t="str">
+      <c r="Y23" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z23" s="65"/>
+      <c r="Z23" s="66"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="52">
@@ -3275,72 +3278,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="58">
         <v>92.0</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="58">
         <v>86.0</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="58">
         <v>177.0</v>
       </c>
       <c r="J24" s="57">
         <f t="shared" si="2"/>
         <v>90.34090909</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="58">
         <v>41.0</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="58">
         <v>30.0</v>
       </c>
-      <c r="M24" s="58">
+      <c r="M24" s="59">
         <f t="shared" si="3"/>
         <v>79.58333333</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="60">
         <v>2.0</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="60">
         <v>7.0</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="60">
         <v>98.0</v>
       </c>
-      <c r="Q24" s="60">
+      <c r="Q24" s="61">
         <f t="shared" si="4"/>
         <v>99.08256881</v>
       </c>
-      <c r="R24" s="61">
+      <c r="R24" s="62">
         <v>7.0</v>
       </c>
-      <c r="S24" s="62">
+      <c r="S24" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T24" s="63">
+      <c r="T24" s="67">
         <v>75.0</v>
       </c>
-      <c r="U24" s="63">
+      <c r="U24" s="67">
         <v>87.0</v>
       </c>
-      <c r="V24" s="64">
+      <c r="V24" s="65">
         <f t="shared" si="6"/>
         <v>90.5</v>
       </c>
-      <c r="W24" s="65">
+      <c r="W24" s="66">
         <f t="shared" si="7"/>
         <v>89.28132472</v>
       </c>
-      <c r="X24" s="65">
+      <c r="X24" s="66">
         <f>VLOOKUP(W24,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y24" s="65" t="str">
+      <c r="Y24" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z24" s="65"/>
+      <c r="Z24" s="66"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="52">
@@ -3360,72 +3363,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="58">
         <v>101.0</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="58">
         <v>84.0</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="58">
         <v>130.0</v>
       </c>
       <c r="J25" s="57">
         <f t="shared" si="2"/>
         <v>85.79545455</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="58">
         <v>44.0</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="58">
         <v>38.0</v>
       </c>
-      <c r="M25" s="58">
+      <c r="M25" s="59">
         <f t="shared" si="3"/>
         <v>84.16666667</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="60">
         <v>2.0</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="60">
         <v>7.0</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="60">
         <v>92.0</v>
       </c>
-      <c r="Q25" s="60">
+      <c r="Q25" s="61">
         <f t="shared" si="4"/>
         <v>96.33027523</v>
       </c>
-      <c r="R25" s="61">
+      <c r="R25" s="62">
         <v>10.0</v>
       </c>
-      <c r="S25" s="62">
+      <c r="S25" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T25" s="63">
+      <c r="T25" s="67">
         <v>86.0</v>
       </c>
-      <c r="U25" s="63">
+      <c r="U25" s="67">
         <v>74.0</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="65">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="W25" s="65">
+      <c r="W25" s="66">
         <f t="shared" si="7"/>
         <v>89.02151098</v>
       </c>
-      <c r="X25" s="65">
+      <c r="X25" s="66">
         <f>VLOOKUP(W25,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y25" s="65" t="str">
+      <c r="Y25" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z25" s="65"/>
+      <c r="Z25" s="66"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="52">
@@ -3445,72 +3448,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="58">
         <v>66.0</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="58">
         <v>68.0</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="58">
         <v>167.0</v>
       </c>
       <c r="J26" s="57">
         <f t="shared" si="2"/>
         <v>84.20454545</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="58">
         <v>37.0</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="58">
         <v>60.0</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="59">
         <f t="shared" si="3"/>
         <v>90.41666667</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="60">
         <v>2.0</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="60">
         <v>7.0</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="60">
         <v>61.0</v>
       </c>
-      <c r="Q26" s="60">
+      <c r="Q26" s="61">
         <f t="shared" si="4"/>
         <v>82.11009174</v>
       </c>
-      <c r="R26" s="61">
+      <c r="R26" s="62">
         <v>8.0</v>
       </c>
-      <c r="S26" s="62">
+      <c r="S26" s="63">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T26" s="63">
+      <c r="T26" s="67">
         <v>81.0</v>
       </c>
-      <c r="U26" s="63">
+      <c r="U26" s="67">
         <v>58.0</v>
       </c>
-      <c r="V26" s="64">
+      <c r="V26" s="65">
         <f t="shared" si="6"/>
         <v>84.75</v>
       </c>
-      <c r="W26" s="65">
+      <c r="W26" s="66">
         <f t="shared" si="7"/>
         <v>85.58621073</v>
       </c>
-      <c r="X26" s="65">
+      <c r="X26" s="66">
         <f>VLOOKUP(W26,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y26" s="65" t="str">
+      <c r="Y26" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z26" s="65"/>
+      <c r="Z26" s="66"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="52">
@@ -3530,72 +3533,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="58">
         <v>94.0</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="58">
         <v>63.0</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="58">
         <v>178.0</v>
       </c>
       <c r="J27" s="57">
         <f t="shared" si="2"/>
         <v>88.06818182</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="58">
         <v>46.0</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="58">
         <v>39.0</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M27" s="59">
         <f t="shared" si="3"/>
         <v>85.41666667</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="60">
         <v>2.0</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="60">
         <v>5.0</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="60">
         <v>77.0</v>
       </c>
-      <c r="Q27" s="60">
+      <c r="Q27" s="61">
         <f t="shared" si="4"/>
         <v>88.53211009</v>
       </c>
-      <c r="R27" s="61">
+      <c r="R27" s="62">
         <v>7.0</v>
       </c>
-      <c r="S27" s="62">
+      <c r="S27" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T27" s="63">
+      <c r="T27" s="67">
         <v>95.0</v>
       </c>
-      <c r="U27" s="63">
+      <c r="U27" s="67">
         <v>63.0</v>
       </c>
-      <c r="V27" s="64">
+      <c r="V27" s="65">
         <f t="shared" si="6"/>
         <v>89.5</v>
       </c>
-      <c r="W27" s="65">
+      <c r="W27" s="66">
         <f t="shared" si="7"/>
         <v>87.88360439</v>
       </c>
-      <c r="X27" s="65">
+      <c r="X27" s="66">
         <f>VLOOKUP(W27,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y27" s="65" t="str">
+      <c r="Y27" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z27" s="65"/>
+      <c r="Z27" s="66"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="52">
@@ -3615,72 +3618,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="58">
         <v>60.0</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="58">
         <v>77.0</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="58">
         <v>182.0</v>
       </c>
       <c r="J28" s="57">
         <f t="shared" si="2"/>
         <v>86.25</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="58">
         <v>53.0</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="58">
         <v>41.0</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="59">
         <f t="shared" si="3"/>
         <v>89.16666667</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="60">
         <v>1.0</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="60">
         <v>4.0</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="60">
         <v>74.0</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="61">
         <f t="shared" si="4"/>
         <v>86.23853211</v>
       </c>
-      <c r="R28" s="61">
+      <c r="R28" s="62">
         <v>7.0</v>
       </c>
-      <c r="S28" s="62">
+      <c r="S28" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T28" s="63">
+      <c r="T28" s="67">
         <v>57.0</v>
       </c>
-      <c r="U28" s="63">
+      <c r="U28" s="67">
         <v>85.0</v>
       </c>
-      <c r="V28" s="64">
+      <c r="V28" s="65">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="W28" s="65">
+      <c r="W28" s="66">
         <f t="shared" si="7"/>
         <v>86.54411315</v>
       </c>
-      <c r="X28" s="65">
+      <c r="X28" s="66">
         <f>VLOOKUP(W28,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y28" s="65" t="str">
+      <c r="Y28" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z28" s="65"/>
+      <c r="Z28" s="66"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="52">
@@ -3700,72 +3703,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="58">
         <v>74.0</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="58">
         <v>103.0</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="58">
         <v>139.0</v>
       </c>
       <c r="J29" s="57">
         <f t="shared" si="2"/>
         <v>85.90909091</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="58">
         <v>52.0</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="58">
         <v>42.0</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="59">
         <f t="shared" si="3"/>
         <v>89.16666667</v>
       </c>
-      <c r="N29" s="59">
+      <c r="N29" s="60">
         <v>1.0</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="60">
         <v>7.0</v>
       </c>
-      <c r="P29" s="59">
+      <c r="P29" s="60">
         <v>81.0</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="Q29" s="61">
         <f t="shared" si="4"/>
         <v>90.82568807</v>
       </c>
-      <c r="R29" s="61">
+      <c r="R29" s="62">
         <v>8.0</v>
       </c>
-      <c r="S29" s="62">
+      <c r="S29" s="63">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T29" s="63">
+      <c r="T29" s="67">
         <v>99.0</v>
       </c>
-      <c r="U29" s="63">
+      <c r="U29" s="67">
         <v>71.0</v>
       </c>
-      <c r="V29" s="64">
+      <c r="V29" s="65">
         <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
-      <c r="W29" s="65">
+      <c r="W29" s="66">
         <f t="shared" si="7"/>
         <v>89.47991382</v>
       </c>
-      <c r="X29" s="65">
+      <c r="X29" s="66">
         <f>VLOOKUP(W29,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y29" s="65" t="str">
+      <c r="Y29" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z29" s="65"/>
+      <c r="Z29" s="66"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="52">
@@ -3785,72 +3788,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="58">
         <v>70.0</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="58">
         <v>70.0</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="58">
         <v>181.0</v>
       </c>
       <c r="J30" s="57">
         <f t="shared" si="2"/>
         <v>86.47727273</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="58">
         <v>49.0</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="58">
         <v>55.0</v>
       </c>
-      <c r="M30" s="58">
+      <c r="M30" s="59">
         <f t="shared" si="3"/>
         <v>93.33333333</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="60">
         <v>2.0</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="60">
         <v>6.0</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="60">
         <v>93.0</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="Q30" s="61">
         <f t="shared" si="4"/>
         <v>96.33027523</v>
       </c>
-      <c r="R30" s="61">
+      <c r="R30" s="62">
         <v>6.0</v>
       </c>
-      <c r="S30" s="62">
+      <c r="S30" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T30" s="63">
+      <c r="T30" s="67">
         <v>88.0</v>
       </c>
-      <c r="U30" s="63">
+      <c r="U30" s="67">
         <v>57.0</v>
       </c>
-      <c r="V30" s="64">
+      <c r="V30" s="65">
         <f t="shared" si="6"/>
         <v>86.25</v>
       </c>
-      <c r="W30" s="65">
+      <c r="W30" s="66">
         <f t="shared" si="7"/>
         <v>88.93438977</v>
       </c>
-      <c r="X30" s="65">
+      <c r="X30" s="66">
         <f>VLOOKUP(W30,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y30" s="65" t="str">
+      <c r="Y30" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z30" s="65"/>
+      <c r="Z30" s="66"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="52">
@@ -3870,72 +3873,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="58">
         <v>84.0</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="58">
         <v>90.0</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="58">
         <v>195.0</v>
       </c>
       <c r="J31" s="57">
         <f t="shared" si="2"/>
         <v>91.93181818</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="58">
         <v>44.0</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L31" s="58">
         <v>35.0</v>
       </c>
-      <c r="M31" s="58">
+      <c r="M31" s="59">
         <f t="shared" si="3"/>
         <v>82.91666667</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="60">
         <v>1.0</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="60">
         <v>5.0</v>
       </c>
-      <c r="P31" s="59">
+      <c r="P31" s="60">
         <v>90.0</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="Q31" s="61">
         <f t="shared" si="4"/>
         <v>94.03669725</v>
       </c>
-      <c r="R31" s="61">
+      <c r="R31" s="62">
         <v>6.0</v>
       </c>
-      <c r="S31" s="62">
+      <c r="S31" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T31" s="63">
+      <c r="T31" s="67">
         <v>61.0</v>
       </c>
-      <c r="U31" s="63">
+      <c r="U31" s="67">
         <v>69.0</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="65">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="W31" s="65">
+      <c r="W31" s="66">
         <f t="shared" si="7"/>
         <v>87.01838338</v>
       </c>
-      <c r="X31" s="65">
+      <c r="X31" s="66">
         <f>VLOOKUP(W31,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y31" s="65" t="str">
+      <c r="Y31" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z31" s="65"/>
+      <c r="Z31" s="66"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="52">
@@ -3955,72 +3958,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="58">
         <v>115.0</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="58">
         <v>109.0</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="58">
         <v>180.0</v>
       </c>
       <c r="J32" s="57">
         <f t="shared" si="2"/>
         <v>95.90909091</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K32" s="58">
         <v>33.0</v>
       </c>
-      <c r="L32" s="56">
+      <c r="L32" s="58">
         <v>47.0</v>
       </c>
-      <c r="M32" s="58">
+      <c r="M32" s="59">
         <f t="shared" si="3"/>
         <v>83.33333333</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="60">
         <v>2.0</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="60">
         <v>5.0</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="60">
         <v>80.0</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="Q32" s="61">
         <f t="shared" si="4"/>
         <v>89.90825688</v>
       </c>
-      <c r="R32" s="61">
+      <c r="R32" s="62">
         <v>5.0</v>
       </c>
-      <c r="S32" s="62">
+      <c r="S32" s="63">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="T32" s="63">
+      <c r="T32" s="67">
         <v>73.0</v>
       </c>
-      <c r="U32" s="63">
+      <c r="U32" s="67">
         <v>73.0</v>
       </c>
-      <c r="V32" s="64">
+      <c r="V32" s="65">
         <f t="shared" si="6"/>
         <v>86.5</v>
       </c>
-      <c r="W32" s="65">
+      <c r="W32" s="66">
         <f t="shared" si="7"/>
         <v>88.62563247</v>
       </c>
-      <c r="X32" s="65">
+      <c r="X32" s="66">
         <f>VLOOKUP(W32,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y32" s="65" t="str">
+      <c r="Y32" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z32" s="65"/>
+      <c r="Z32" s="66"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="52">
@@ -4040,72 +4043,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="58">
         <v>81.0</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="58">
         <v>88.0</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="58">
         <v>168.0</v>
       </c>
       <c r="J33" s="57">
         <f t="shared" si="2"/>
         <v>88.29545455</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="58">
         <v>52.0</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="58">
         <v>56.0</v>
       </c>
-      <c r="M33" s="58">
+      <c r="M33" s="59">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="60">
         <v>2.0</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="60">
         <v>5.0</v>
       </c>
-      <c r="P33" s="59">
+      <c r="P33" s="60">
         <v>59.0</v>
       </c>
-      <c r="Q33" s="60">
+      <c r="Q33" s="61">
         <f t="shared" si="4"/>
         <v>80.27522936</v>
       </c>
-      <c r="R33" s="61">
+      <c r="R33" s="62">
         <v>9.0</v>
       </c>
-      <c r="S33" s="62">
+      <c r="S33" s="63">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="T33" s="63">
+      <c r="T33" s="67">
         <v>60.0</v>
       </c>
-      <c r="U33" s="63">
+      <c r="U33" s="67">
         <v>92.0</v>
       </c>
-      <c r="V33" s="64">
+      <c r="V33" s="65">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="W33" s="65">
+      <c r="W33" s="66">
         <f t="shared" si="7"/>
         <v>88.67992077</v>
       </c>
-      <c r="X33" s="65">
+      <c r="X33" s="66">
         <f>VLOOKUP(W33,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y33" s="65" t="str">
+      <c r="Y33" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z33" s="65"/>
+      <c r="Z33" s="66"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="52">
@@ -4125,72 +4128,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="58">
         <v>93.0</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="58">
         <v>64.0</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="58">
         <v>125.0</v>
       </c>
       <c r="J34" s="57">
         <f t="shared" si="2"/>
         <v>82.04545455</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="58">
         <v>32.0</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="58">
         <v>45.0</v>
       </c>
-      <c r="M34" s="58">
+      <c r="M34" s="59">
         <f t="shared" si="3"/>
         <v>82.08333333</v>
       </c>
-      <c r="N34" s="59">
+      <c r="N34" s="60">
         <v>2.0</v>
       </c>
-      <c r="O34" s="59">
+      <c r="O34" s="60">
         <v>5.0</v>
       </c>
-      <c r="P34" s="59">
+      <c r="P34" s="60">
         <v>88.0</v>
       </c>
-      <c r="Q34" s="60">
+      <c r="Q34" s="61">
         <f t="shared" si="4"/>
         <v>93.57798165</v>
       </c>
-      <c r="R34" s="61">
+      <c r="R34" s="62">
         <v>5.0</v>
       </c>
-      <c r="S34" s="62">
+      <c r="S34" s="63">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="T34" s="63">
+      <c r="T34" s="67">
         <v>56.0</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U34" s="67">
         <v>98.0</v>
       </c>
-      <c r="V34" s="64">
+      <c r="V34" s="65">
         <f t="shared" si="6"/>
         <v>88.5</v>
       </c>
-      <c r="W34" s="65">
+      <c r="W34" s="66">
         <f t="shared" si="7"/>
         <v>85.36700028</v>
       </c>
-      <c r="X34" s="65">
+      <c r="X34" s="66">
         <f>VLOOKUP(W34,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y34" s="65" t="str">
+      <c r="Y34" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z34" s="65"/>
+      <c r="Z34" s="66"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="52">
@@ -4208,74 +4211,74 @@
       <c r="E35" s="54"/>
       <c r="F35" s="55">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="G35" s="56">
-        <v>72.0</v>
-      </c>
-      <c r="H35" s="56">
+        <v>40.0</v>
+      </c>
+      <c r="H35" s="58">
         <v>75.0</v>
       </c>
       <c r="I35" s="56">
-        <v>121.0</v>
+        <v>75.0</v>
       </c>
       <c r="J35" s="57">
         <f t="shared" si="2"/>
-        <v>80.45454545</v>
+        <v>71.59090909</v>
       </c>
       <c r="K35" s="56">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="L35" s="56">
-        <v>32.0</v>
-      </c>
-      <c r="M35" s="58">
+        <v>22.0</v>
+      </c>
+      <c r="M35" s="59">
         <f t="shared" si="3"/>
-        <v>77.91666667</v>
-      </c>
-      <c r="N35" s="59">
+        <v>67.5</v>
+      </c>
+      <c r="N35" s="60">
         <v>1.0</v>
       </c>
-      <c r="O35" s="59">
+      <c r="O35" s="60">
         <v>6.0</v>
       </c>
-      <c r="P35" s="59">
+      <c r="P35" s="60">
         <v>84.0</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="61">
         <f t="shared" si="4"/>
         <v>91.74311927</v>
       </c>
-      <c r="R35" s="61">
+      <c r="R35" s="62">
         <v>4.0</v>
       </c>
-      <c r="S35" s="62">
+      <c r="S35" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T35" s="63">
-        <v>74.0</v>
-      </c>
-      <c r="U35" s="63">
-        <v>77.0</v>
-      </c>
-      <c r="V35" s="64">
+      <c r="T35" s="64">
+        <v>52.0</v>
+      </c>
+      <c r="U35" s="64">
+        <v>63.0</v>
+      </c>
+      <c r="V35" s="65">
         <f t="shared" si="6"/>
-        <v>87.75</v>
-      </c>
-      <c r="W35" s="65">
+        <v>78.75</v>
+      </c>
+      <c r="W35" s="66">
         <f t="shared" si="7"/>
-        <v>83.30616486</v>
-      </c>
-      <c r="X35" s="65">
+        <v>75.86374062</v>
+      </c>
+      <c r="X35" s="66">
         <f>VLOOKUP(W35,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2.25</v>
-      </c>
-      <c r="Y35" s="65" t="str">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z35" s="65"/>
+      <c r="Z35" s="66"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="52">
@@ -4295,72 +4298,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="58">
         <v>89.0</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="58">
         <v>99.0</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I36" s="58">
         <v>170.0</v>
       </c>
       <c r="J36" s="57">
         <f t="shared" si="2"/>
         <v>90.68181818</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="58">
         <v>33.0</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="58">
         <v>52.0</v>
       </c>
-      <c r="M36" s="58">
+      <c r="M36" s="59">
         <f t="shared" si="3"/>
         <v>85.41666667</v>
       </c>
-      <c r="N36" s="59">
+      <c r="N36" s="60">
         <v>1.0</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="60">
         <v>4.0</v>
       </c>
-      <c r="P36" s="59">
+      <c r="P36" s="60">
         <v>71.0</v>
       </c>
-      <c r="Q36" s="60">
+      <c r="Q36" s="61">
         <f t="shared" si="4"/>
         <v>84.86238532</v>
       </c>
-      <c r="R36" s="61">
+      <c r="R36" s="62">
         <v>4.0</v>
       </c>
-      <c r="S36" s="62">
+      <c r="S36" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T36" s="63">
+      <c r="T36" s="67">
         <v>96.0</v>
       </c>
-      <c r="U36" s="63">
+      <c r="U36" s="67">
         <v>51.0</v>
       </c>
-      <c r="V36" s="64">
+      <c r="V36" s="65">
         <f t="shared" si="6"/>
         <v>86.75</v>
       </c>
-      <c r="W36" s="65">
+      <c r="W36" s="66">
         <f t="shared" si="7"/>
         <v>86.54223659</v>
       </c>
-      <c r="X36" s="65">
+      <c r="X36" s="66">
         <f>VLOOKUP(W36,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y36" s="65" t="str">
+      <c r="Y36" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z36" s="65"/>
+      <c r="Z36" s="66"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="52">
@@ -4380,72 +4383,72 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="58">
         <v>104.0</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="58">
         <v>72.0</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="58">
         <v>123.0</v>
       </c>
       <c r="J37" s="57">
         <f t="shared" si="2"/>
         <v>83.97727273</v>
       </c>
-      <c r="K37" s="56">
+      <c r="K37" s="58">
         <v>52.0</v>
       </c>
-      <c r="L37" s="56">
+      <c r="L37" s="58">
         <v>34.0</v>
       </c>
-      <c r="M37" s="58">
+      <c r="M37" s="59">
         <f t="shared" si="3"/>
         <v>85.83333333</v>
       </c>
-      <c r="N37" s="59">
+      <c r="N37" s="60">
         <v>1.0</v>
       </c>
-      <c r="O37" s="59">
+      <c r="O37" s="60">
         <v>7.0</v>
       </c>
-      <c r="P37" s="59">
+      <c r="P37" s="60">
         <v>56.0</v>
       </c>
-      <c r="Q37" s="60">
+      <c r="Q37" s="61">
         <f t="shared" si="4"/>
         <v>79.35779817</v>
       </c>
-      <c r="R37" s="61">
+      <c r="R37" s="62">
         <v>6.0</v>
       </c>
-      <c r="S37" s="62">
+      <c r="S37" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T37" s="63">
+      <c r="T37" s="67">
         <v>63.0</v>
       </c>
-      <c r="U37" s="63">
+      <c r="U37" s="67">
         <v>88.0</v>
       </c>
-      <c r="V37" s="64">
+      <c r="V37" s="65">
         <f t="shared" si="6"/>
         <v>87.75</v>
       </c>
-      <c r="W37" s="65">
+      <c r="W37" s="66">
         <f t="shared" si="7"/>
         <v>84.58851821</v>
       </c>
-      <c r="X37" s="65">
+      <c r="X37" s="66">
         <f>VLOOKUP(W37,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2.25</v>
       </c>
-      <c r="Y37" s="65" t="str">
+      <c r="Y37" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z37" s="65"/>
+      <c r="Z37" s="66"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="52">
@@ -4465,72 +4468,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="58">
         <v>114.0</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="58">
         <v>110.0</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I38" s="58">
         <v>193.0</v>
       </c>
       <c r="J38" s="57">
         <f t="shared" si="2"/>
         <v>97.38636364</v>
       </c>
-      <c r="K38" s="56">
+      <c r="K38" s="58">
         <v>39.0</v>
       </c>
-      <c r="L38" s="56">
+      <c r="L38" s="58">
         <v>31.0</v>
       </c>
-      <c r="M38" s="58">
+      <c r="M38" s="59">
         <f t="shared" si="3"/>
         <v>79.16666667</v>
       </c>
-      <c r="N38" s="59">
+      <c r="N38" s="60">
         <v>1.0</v>
       </c>
-      <c r="O38" s="59">
+      <c r="O38" s="60">
         <v>6.0</v>
       </c>
-      <c r="P38" s="59">
+      <c r="P38" s="60">
         <v>66.0</v>
       </c>
-      <c r="Q38" s="60">
+      <c r="Q38" s="61">
         <f t="shared" si="4"/>
         <v>83.48623853</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="62">
         <v>9.0</v>
       </c>
-      <c r="S38" s="62">
+      <c r="S38" s="63">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="T38" s="63">
+      <c r="T38" s="67">
         <v>97.0</v>
       </c>
-      <c r="U38" s="63">
+      <c r="U38" s="67">
         <v>54.0</v>
       </c>
-      <c r="V38" s="64">
+      <c r="V38" s="65">
         <f t="shared" si="6"/>
         <v>87.75</v>
       </c>
-      <c r="W38" s="65">
+      <c r="W38" s="66">
         <f t="shared" si="7"/>
         <v>88.6471782</v>
       </c>
-      <c r="X38" s="65">
+      <c r="X38" s="66">
         <f>VLOOKUP(W38,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y38" s="65" t="str">
+      <c r="Y38" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z38" s="65"/>
+      <c r="Z38" s="66"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="52">
@@ -4550,72 +4553,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="58">
         <v>63.0</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="58">
         <v>100.0</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="58">
         <v>156.0</v>
       </c>
       <c r="J39" s="57">
         <f t="shared" si="2"/>
         <v>86.25</v>
       </c>
-      <c r="K39" s="56">
+      <c r="K39" s="58">
         <v>46.0</v>
       </c>
-      <c r="L39" s="56">
+      <c r="L39" s="58">
         <v>43.0</v>
       </c>
-      <c r="M39" s="58">
+      <c r="M39" s="59">
         <f t="shared" si="3"/>
         <v>87.08333333</v>
       </c>
-      <c r="N39" s="59">
+      <c r="N39" s="60">
         <v>2.0</v>
       </c>
-      <c r="O39" s="59">
+      <c r="O39" s="60">
         <v>7.0</v>
       </c>
-      <c r="P39" s="59">
+      <c r="P39" s="60">
         <v>85.0</v>
       </c>
-      <c r="Q39" s="60">
+      <c r="Q39" s="61">
         <f t="shared" si="4"/>
         <v>93.11926606</v>
       </c>
-      <c r="R39" s="61">
+      <c r="R39" s="62">
         <v>6.0</v>
       </c>
-      <c r="S39" s="62">
+      <c r="S39" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T39" s="63">
+      <c r="T39" s="67">
         <v>94.0</v>
       </c>
-      <c r="U39" s="63">
+      <c r="U39" s="67">
         <v>65.0</v>
       </c>
-      <c r="V39" s="64">
+      <c r="V39" s="65">
         <f t="shared" si="6"/>
         <v>89.75</v>
       </c>
-      <c r="W39" s="65">
+      <c r="W39" s="66">
         <f t="shared" si="7"/>
         <v>88.18455657</v>
       </c>
-      <c r="X39" s="65">
+      <c r="X39" s="66">
         <f>VLOOKUP(W39,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y39" s="65" t="str">
+      <c r="Y39" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z39" s="65"/>
+      <c r="Z39" s="66"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="52">
@@ -4635,72 +4638,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="58">
         <v>105.0</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="58">
         <v>79.0</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="58">
         <v>141.0</v>
       </c>
       <c r="J40" s="57">
         <f t="shared" si="2"/>
         <v>86.93181818</v>
       </c>
-      <c r="K40" s="56">
+      <c r="K40" s="58">
         <v>57.0</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="58">
         <v>53.0</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="59">
         <f t="shared" si="3"/>
         <v>95.83333333</v>
       </c>
-      <c r="N40" s="59">
+      <c r="N40" s="60">
         <v>1.0</v>
       </c>
-      <c r="O40" s="59">
+      <c r="O40" s="60">
         <v>7.0</v>
       </c>
-      <c r="P40" s="59">
+      <c r="P40" s="60">
         <v>73.0</v>
       </c>
-      <c r="Q40" s="60">
+      <c r="Q40" s="61">
         <f t="shared" si="4"/>
         <v>87.1559633</v>
       </c>
-      <c r="R40" s="61">
+      <c r="R40" s="62">
         <v>10.0</v>
       </c>
-      <c r="S40" s="62">
+      <c r="S40" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T40" s="63">
+      <c r="T40" s="67">
         <v>83.0</v>
       </c>
-      <c r="U40" s="63">
+      <c r="U40" s="67">
         <v>84.0</v>
       </c>
-      <c r="V40" s="64">
+      <c r="V40" s="65">
         <f t="shared" si="6"/>
         <v>91.75</v>
       </c>
-      <c r="W40" s="65">
+      <c r="W40" s="66">
         <f t="shared" si="7"/>
         <v>90.84460662</v>
       </c>
-      <c r="X40" s="65">
+      <c r="X40" s="66">
         <f>VLOOKUP(W40,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y40" s="65" t="str">
+      <c r="Y40" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z40" s="65"/>
+      <c r="Z40" s="66"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="52">
@@ -4720,72 +4723,72 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="58">
         <v>69.0</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41" s="58">
         <v>89.0</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I41" s="58">
         <v>135.0</v>
       </c>
       <c r="J41" s="57">
         <f t="shared" si="2"/>
         <v>83.29545455</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K41" s="58">
         <v>46.0</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="58">
         <v>40.0</v>
       </c>
-      <c r="M41" s="58">
+      <c r="M41" s="59">
         <f t="shared" si="3"/>
         <v>85.83333333</v>
       </c>
-      <c r="N41" s="59">
+      <c r="N41" s="60">
         <v>1.0</v>
       </c>
-      <c r="O41" s="59">
+      <c r="O41" s="60">
         <v>5.0</v>
       </c>
-      <c r="P41" s="59">
+      <c r="P41" s="60">
         <v>55.0</v>
       </c>
-      <c r="Q41" s="60">
+      <c r="Q41" s="61">
         <f t="shared" si="4"/>
         <v>77.98165138</v>
       </c>
-      <c r="R41" s="61">
+      <c r="R41" s="62">
         <v>10.0</v>
       </c>
-      <c r="S41" s="62">
+      <c r="S41" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T41" s="63">
+      <c r="T41" s="67">
         <v>62.0</v>
       </c>
-      <c r="U41" s="63">
+      <c r="U41" s="67">
         <v>64.0</v>
       </c>
-      <c r="V41" s="64">
+      <c r="V41" s="65">
         <f t="shared" si="6"/>
         <v>81.5</v>
       </c>
-      <c r="W41" s="65">
+      <c r="W41" s="66">
         <f t="shared" si="7"/>
         <v>83.30255074</v>
       </c>
-      <c r="X41" s="65">
+      <c r="X41" s="66">
         <f>VLOOKUP(W41,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2.25</v>
       </c>
-      <c r="Y41" s="65" t="str">
+      <c r="Y41" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z41" s="65"/>
+      <c r="Z41" s="66"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="52">
@@ -4805,72 +4808,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="58">
         <v>109.0</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="58">
         <v>82.0</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="58">
         <v>192.0</v>
       </c>
       <c r="J42" s="57">
         <f t="shared" si="2"/>
         <v>93.52272727</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="58">
         <v>51.0</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="58">
         <v>56.0</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="59">
         <f t="shared" si="3"/>
         <v>94.58333333</v>
       </c>
-      <c r="N42" s="59">
+      <c r="N42" s="60">
         <v>2.0</v>
       </c>
-      <c r="O42" s="59">
+      <c r="O42" s="60">
         <v>4.0</v>
       </c>
-      <c r="P42" s="59">
+      <c r="P42" s="60">
         <v>54.0</v>
       </c>
-      <c r="Q42" s="60">
+      <c r="Q42" s="61">
         <f t="shared" si="4"/>
         <v>77.52293578</v>
       </c>
-      <c r="R42" s="61">
+      <c r="R42" s="62">
         <v>5.0</v>
       </c>
-      <c r="S42" s="62">
+      <c r="S42" s="63">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="T42" s="63">
+      <c r="T42" s="67">
         <v>58.0</v>
       </c>
-      <c r="U42" s="63">
+      <c r="U42" s="67">
         <v>66.0</v>
       </c>
-      <c r="V42" s="64">
+      <c r="V42" s="65">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="W42" s="65">
+      <c r="W42" s="66">
         <f t="shared" si="7"/>
         <v>86.65192522</v>
       </c>
-      <c r="X42" s="65">
+      <c r="X42" s="66">
         <f>VLOOKUP(W42,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y42" s="65" t="str">
+      <c r="Y42" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z42" s="65"/>
+      <c r="Z42" s="66"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="52">
@@ -4890,72 +4893,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="58">
         <v>116.0</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="58">
         <v>93.0</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="58">
         <v>176.0</v>
       </c>
       <c r="J43" s="57">
         <f t="shared" si="2"/>
         <v>93.75</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K43" s="58">
         <v>48.0</v>
       </c>
-      <c r="L43" s="56">
+      <c r="L43" s="58">
         <v>48.0</v>
       </c>
-      <c r="M43" s="58">
+      <c r="M43" s="59">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="N43" s="59">
+      <c r="N43" s="60">
         <v>2.0</v>
       </c>
-      <c r="O43" s="59">
+      <c r="O43" s="60">
         <v>5.0</v>
       </c>
-      <c r="P43" s="59">
+      <c r="P43" s="60">
         <v>69.0</v>
       </c>
-      <c r="Q43" s="60">
+      <c r="Q43" s="61">
         <f t="shared" si="4"/>
         <v>84.86238532</v>
       </c>
-      <c r="R43" s="61">
+      <c r="R43" s="62">
         <v>4.0</v>
       </c>
-      <c r="S43" s="62">
+      <c r="S43" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T43" s="63">
+      <c r="T43" s="67">
         <v>55.0</v>
       </c>
-      <c r="U43" s="63">
+      <c r="U43" s="67">
         <v>62.0</v>
       </c>
-      <c r="V43" s="64">
+      <c r="V43" s="65">
         <f t="shared" si="6"/>
         <v>79.25</v>
       </c>
-      <c r="W43" s="65">
+      <c r="W43" s="66">
         <f t="shared" si="7"/>
         <v>86.1293578</v>
       </c>
-      <c r="X43" s="65">
+      <c r="X43" s="66">
         <f>VLOOKUP(W43,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y43" s="65" t="str">
+      <c r="Y43" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z43" s="65"/>
+      <c r="Z43" s="66"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="52">
@@ -4975,157 +4978,157 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="58">
         <v>79.0</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="58">
         <v>83.0</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="58">
         <v>171.0</v>
       </c>
       <c r="J44" s="57">
         <f t="shared" si="2"/>
         <v>87.84090909</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="58">
         <v>52.0</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="58">
         <v>55.0</v>
       </c>
-      <c r="M44" s="58">
+      <c r="M44" s="59">
         <f t="shared" si="3"/>
         <v>94.58333333</v>
       </c>
-      <c r="N44" s="59">
+      <c r="N44" s="60">
         <v>1.0</v>
       </c>
-      <c r="O44" s="59">
+      <c r="O44" s="60">
         <v>5.0</v>
       </c>
-      <c r="P44" s="59">
+      <c r="P44" s="60">
         <v>51.0</v>
       </c>
-      <c r="Q44" s="60">
+      <c r="Q44" s="61">
         <f t="shared" si="4"/>
         <v>76.14678899</v>
       </c>
-      <c r="R44" s="61">
+      <c r="R44" s="62">
         <v>6.0</v>
       </c>
-      <c r="S44" s="62">
+      <c r="S44" s="63">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T44" s="63">
+      <c r="T44" s="67">
         <v>67.0</v>
       </c>
-      <c r="U44" s="63">
+      <c r="U44" s="67">
         <v>96.0</v>
       </c>
-      <c r="V44" s="64">
+      <c r="V44" s="65">
         <f t="shared" si="6"/>
         <v>90.75</v>
       </c>
-      <c r="W44" s="65">
+      <c r="W44" s="66">
         <f t="shared" si="7"/>
         <v>87.91595774</v>
       </c>
-      <c r="X44" s="65">
+      <c r="X44" s="66">
         <f>VLOOKUP(W44,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y44" s="65" t="str">
+      <c r="Y44" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z44" s="65"/>
+      <c r="Z44" s="66"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="68">
+      <c r="A45" s="69">
         <v>33.0</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="70">
         <v>2.021114942E9</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="71">
+      <c r="E45" s="71"/>
+      <c r="F45" s="72">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="73">
         <v>120.0</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="73">
         <v>113.0</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="73">
         <v>163.0</v>
       </c>
-      <c r="J45" s="73">
+      <c r="J45" s="74">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="K45" s="72">
+      <c r="K45" s="73">
         <v>48.0</v>
       </c>
-      <c r="L45" s="72">
+      <c r="L45" s="73">
         <v>57.0</v>
       </c>
-      <c r="M45" s="74">
+      <c r="M45" s="75">
         <f t="shared" si="3"/>
         <v>93.75</v>
       </c>
-      <c r="N45" s="75">
+      <c r="N45" s="76">
         <v>1.0</v>
       </c>
-      <c r="O45" s="75">
+      <c r="O45" s="76">
         <v>4.0</v>
       </c>
-      <c r="P45" s="75">
+      <c r="P45" s="76">
         <v>87.0</v>
       </c>
-      <c r="Q45" s="76">
+      <c r="Q45" s="77">
         <f t="shared" si="4"/>
         <v>92.20183486</v>
       </c>
-      <c r="R45" s="77">
+      <c r="R45" s="78">
         <v>10.0</v>
       </c>
-      <c r="S45" s="78">
+      <c r="S45" s="79">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T45" s="79">
+      <c r="T45" s="80">
         <v>65.0</v>
       </c>
-      <c r="U45" s="79">
+      <c r="U45" s="80">
         <v>70.0</v>
       </c>
-      <c r="V45" s="80">
+      <c r="V45" s="81">
         <f t="shared" si="6"/>
         <v>83.75</v>
       </c>
-      <c r="W45" s="81">
+      <c r="W45" s="82">
         <f t="shared" si="7"/>
         <v>91.20527523</v>
       </c>
-      <c r="X45" s="81">
+      <c r="X45" s="82">
         <f>VLOOKUP(W45,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y45" s="81" t="str">
+      <c r="Y45" s="82" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z45" s="81"/>
+      <c r="Z45" s="82"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="52">
@@ -5145,72 +5148,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="58">
         <v>86.0</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="58">
         <v>96.0</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="58">
         <v>137.0</v>
       </c>
       <c r="J46" s="57">
         <f t="shared" si="2"/>
         <v>86.25</v>
       </c>
-      <c r="K46" s="56">
+      <c r="K46" s="58">
         <v>52.0</v>
       </c>
-      <c r="L46" s="56">
+      <c r="L46" s="58">
         <v>59.0</v>
       </c>
-      <c r="M46" s="58">
+      <c r="M46" s="59">
         <f t="shared" si="3"/>
         <v>96.25</v>
       </c>
-      <c r="N46" s="59">
+      <c r="N46" s="60">
         <v>2.0</v>
       </c>
-      <c r="O46" s="59">
+      <c r="O46" s="60">
         <v>6.0</v>
       </c>
-      <c r="P46" s="59">
+      <c r="P46" s="60">
         <v>97.0</v>
       </c>
-      <c r="Q46" s="60">
+      <c r="Q46" s="61">
         <f t="shared" si="4"/>
         <v>98.16513761</v>
       </c>
-      <c r="R46" s="61">
+      <c r="R46" s="62">
         <v>7.0</v>
       </c>
-      <c r="S46" s="62">
+      <c r="S46" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T46" s="63">
+      <c r="T46" s="67">
         <v>91.0</v>
       </c>
-      <c r="U46" s="63">
+      <c r="U46" s="67">
         <v>72.0</v>
       </c>
-      <c r="V46" s="64">
+      <c r="V46" s="65">
         <f t="shared" si="6"/>
         <v>90.75</v>
       </c>
-      <c r="W46" s="65">
+      <c r="W46" s="66">
         <f t="shared" si="7"/>
         <v>91.32477064</v>
       </c>
-      <c r="X46" s="65">
+      <c r="X46" s="66">
         <f>VLOOKUP(W46,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y46" s="65" t="str">
+      <c r="Y46" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z46" s="65"/>
+      <c r="Z46" s="66"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="52">
@@ -5230,72 +5233,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="58">
         <v>113.0</v>
       </c>
-      <c r="H47" s="56">
+      <c r="H47" s="58">
         <v>98.0</v>
       </c>
-      <c r="I47" s="56">
+      <c r="I47" s="58">
         <v>200.0</v>
       </c>
       <c r="J47" s="57">
         <f t="shared" si="2"/>
         <v>96.70454545</v>
       </c>
-      <c r="K47" s="56">
+      <c r="K47" s="58">
         <v>30.0</v>
       </c>
-      <c r="L47" s="56">
+      <c r="L47" s="58">
         <v>48.0</v>
       </c>
-      <c r="M47" s="58">
+      <c r="M47" s="59">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="60">
         <v>2.0</v>
       </c>
-      <c r="O47" s="59">
+      <c r="O47" s="60">
         <v>6.0</v>
       </c>
-      <c r="P47" s="59">
+      <c r="P47" s="60">
         <v>96.0</v>
       </c>
-      <c r="Q47" s="60">
+      <c r="Q47" s="61">
         <f t="shared" si="4"/>
         <v>97.70642202</v>
       </c>
-      <c r="R47" s="61">
+      <c r="R47" s="62">
         <v>4.0</v>
       </c>
-      <c r="S47" s="62">
+      <c r="S47" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T47" s="63">
+      <c r="T47" s="67">
         <v>64.0</v>
       </c>
-      <c r="U47" s="63">
+      <c r="U47" s="67">
         <v>76.0</v>
       </c>
-      <c r="V47" s="64">
+      <c r="V47" s="65">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="W47" s="65">
+      <c r="W47" s="66">
         <f t="shared" si="7"/>
         <v>89.16732694</v>
       </c>
-      <c r="X47" s="65">
+      <c r="X47" s="66">
         <f>VLOOKUP(W47,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y47" s="65" t="str">
+      <c r="Y47" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z47" s="65"/>
+      <c r="Z47" s="66"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="52">
@@ -5315,72 +5318,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="58">
         <v>98.0</v>
       </c>
-      <c r="H48" s="56">
+      <c r="H48" s="58">
         <v>104.0</v>
       </c>
-      <c r="I48" s="56">
+      <c r="I48" s="58">
         <v>144.0</v>
       </c>
       <c r="J48" s="57">
         <f t="shared" si="2"/>
         <v>89.31818182</v>
       </c>
-      <c r="K48" s="56">
+      <c r="K48" s="58">
         <v>32.0</v>
       </c>
-      <c r="L48" s="56">
+      <c r="L48" s="58">
         <v>52.0</v>
       </c>
-      <c r="M48" s="58">
+      <c r="M48" s="59">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="N48" s="59">
+      <c r="N48" s="60">
         <v>1.0</v>
       </c>
-      <c r="O48" s="59">
+      <c r="O48" s="60">
         <v>4.0</v>
       </c>
-      <c r="P48" s="59">
+      <c r="P48" s="60">
         <v>50.0</v>
       </c>
-      <c r="Q48" s="60">
+      <c r="Q48" s="61">
         <f t="shared" si="4"/>
         <v>75.2293578</v>
       </c>
-      <c r="R48" s="61">
+      <c r="R48" s="62">
         <v>10.0</v>
       </c>
-      <c r="S48" s="62">
+      <c r="S48" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T48" s="63">
+      <c r="T48" s="67">
         <v>66.0</v>
       </c>
-      <c r="U48" s="63">
+      <c r="U48" s="67">
         <v>86.0</v>
       </c>
-      <c r="V48" s="64">
+      <c r="V48" s="65">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="W48" s="65">
+      <c r="W48" s="66">
         <f t="shared" si="7"/>
         <v>86.47985822</v>
       </c>
-      <c r="X48" s="65">
+      <c r="X48" s="66">
         <f>VLOOKUP(W48,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y48" s="65" t="str">
+      <c r="Y48" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z48" s="65"/>
+      <c r="Z48" s="66"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="52">
@@ -5400,72 +5403,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G49" s="56">
+      <c r="G49" s="58">
         <v>67.0</v>
       </c>
-      <c r="H49" s="56">
+      <c r="H49" s="58">
         <v>119.0</v>
       </c>
-      <c r="I49" s="56">
+      <c r="I49" s="58">
         <v>187.0</v>
       </c>
       <c r="J49" s="57">
         <f t="shared" si="2"/>
         <v>92.38636364</v>
       </c>
-      <c r="K49" s="56">
+      <c r="K49" s="58">
         <v>30.0</v>
       </c>
-      <c r="L49" s="56">
+      <c r="L49" s="58">
         <v>54.0</v>
       </c>
-      <c r="M49" s="58">
+      <c r="M49" s="59">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="N49" s="59">
+      <c r="N49" s="60">
         <v>2.0</v>
       </c>
-      <c r="O49" s="59">
+      <c r="O49" s="60">
         <v>4.0</v>
       </c>
-      <c r="P49" s="59">
+      <c r="P49" s="60">
         <v>94.0</v>
       </c>
-      <c r="Q49" s="60">
+      <c r="Q49" s="61">
         <f t="shared" si="4"/>
         <v>95.87155963</v>
       </c>
-      <c r="R49" s="61">
+      <c r="R49" s="62">
         <v>9.0</v>
       </c>
-      <c r="S49" s="62">
+      <c r="S49" s="63">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="T49" s="63">
+      <c r="T49" s="67">
         <v>50.0</v>
       </c>
-      <c r="U49" s="63">
+      <c r="U49" s="67">
         <v>53.0</v>
       </c>
-      <c r="V49" s="64">
+      <c r="V49" s="65">
         <f t="shared" si="6"/>
         <v>75.75</v>
       </c>
-      <c r="W49" s="65">
+      <c r="W49" s="66">
         <f t="shared" si="7"/>
         <v>86.57164304</v>
       </c>
-      <c r="X49" s="65">
+      <c r="X49" s="66">
         <f>VLOOKUP(W49,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y49" s="65" t="str">
+      <c r="Y49" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z49" s="65"/>
+      <c r="Z49" s="66"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="52">
@@ -5483,74 +5486,74 @@
       <c r="E50" s="54"/>
       <c r="F50" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" s="56">
-        <v>71.0</v>
+        <v>40.0</v>
       </c>
       <c r="H50" s="56">
-        <v>102.0</v>
+        <v>50.0</v>
       </c>
       <c r="I50" s="56">
-        <v>150.0</v>
+        <v>80.0</v>
       </c>
       <c r="J50" s="57">
         <f t="shared" si="2"/>
-        <v>86.70454545</v>
+        <v>69.31818182</v>
       </c>
       <c r="K50" s="56">
-        <v>51.0</v>
-      </c>
-      <c r="L50" s="56">
+        <v>20.0</v>
+      </c>
+      <c r="L50" s="58">
         <v>32.0</v>
       </c>
-      <c r="M50" s="58">
+      <c r="M50" s="59">
         <f t="shared" si="3"/>
-        <v>84.58333333</v>
-      </c>
-      <c r="N50" s="59">
+        <v>71.66666667</v>
+      </c>
+      <c r="N50" s="60">
         <v>2.0</v>
       </c>
-      <c r="O50" s="59">
+      <c r="O50" s="60">
         <v>7.0</v>
       </c>
-      <c r="P50" s="59">
+      <c r="P50" s="60">
         <v>78.0</v>
       </c>
-      <c r="Q50" s="60">
+      <c r="Q50" s="61">
         <f t="shared" si="4"/>
         <v>89.90825688</v>
       </c>
-      <c r="R50" s="61">
+      <c r="R50" s="62">
         <v>8.0</v>
       </c>
-      <c r="S50" s="62">
+      <c r="S50" s="63">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T50" s="63">
-        <v>70.0</v>
-      </c>
-      <c r="U50" s="63">
-        <v>68.0</v>
-      </c>
-      <c r="V50" s="64">
+      <c r="T50" s="64">
+        <v>40.0</v>
+      </c>
+      <c r="U50" s="64">
+        <v>50.0</v>
+      </c>
+      <c r="V50" s="65">
         <f t="shared" si="6"/>
-        <v>84.5</v>
-      </c>
-      <c r="W50" s="65">
+        <v>72.5</v>
+      </c>
+      <c r="W50" s="66">
         <f t="shared" si="7"/>
-        <v>86.26426884</v>
-      </c>
-      <c r="X50" s="65">
+        <v>74.86502641</v>
+      </c>
+      <c r="X50" s="66">
         <f>VLOOKUP(W50,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y50" s="65" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="66" t="str">
         <f t="shared" si="8"/>
-        <v>Passed</v>
-      </c>
-      <c r="Z50" s="65"/>
+        <v>Failed</v>
+      </c>
+      <c r="Z50" s="66"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="52">
@@ -5570,72 +5573,72 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G51" s="56">
+      <c r="G51" s="58">
         <v>96.0</v>
       </c>
-      <c r="H51" s="56">
+      <c r="H51" s="58">
         <v>107.0</v>
       </c>
-      <c r="I51" s="56">
+      <c r="I51" s="58">
         <v>186.0</v>
       </c>
       <c r="J51" s="57">
         <f t="shared" si="2"/>
         <v>94.20454545</v>
       </c>
-      <c r="K51" s="56">
+      <c r="K51" s="58">
         <v>42.0</v>
       </c>
-      <c r="L51" s="56">
+      <c r="L51" s="58">
         <v>42.0</v>
       </c>
-      <c r="M51" s="58">
+      <c r="M51" s="59">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="N51" s="59">
+      <c r="N51" s="60">
         <v>2.0</v>
       </c>
-      <c r="O51" s="59">
+      <c r="O51" s="60">
         <v>4.0</v>
       </c>
-      <c r="P51" s="59">
+      <c r="P51" s="60">
         <v>83.0</v>
       </c>
-      <c r="Q51" s="60">
+      <c r="Q51" s="61">
         <f t="shared" si="4"/>
         <v>90.82568807</v>
       </c>
-      <c r="R51" s="61">
+      <c r="R51" s="62">
         <v>7.0</v>
       </c>
-      <c r="S51" s="62">
+      <c r="S51" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T51" s="63">
+      <c r="T51" s="67">
         <v>85.0</v>
       </c>
-      <c r="U51" s="63">
+      <c r="U51" s="67">
         <v>97.0</v>
       </c>
-      <c r="V51" s="64">
+      <c r="V51" s="65">
         <f t="shared" si="6"/>
         <v>95.5</v>
       </c>
-      <c r="W51" s="65">
+      <c r="W51" s="66">
         <f t="shared" si="7"/>
         <v>91.78521685</v>
       </c>
-      <c r="X51" s="65">
+      <c r="X51" s="66">
         <f>VLOOKUP(W51,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Y51" s="65" t="str">
+      <c r="Y51" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z51" s="65"/>
+      <c r="Z51" s="66"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="52">
@@ -5655,72 +5658,72 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G52" s="56">
+      <c r="G52" s="58">
         <v>65.0</v>
       </c>
-      <c r="H52" s="56">
+      <c r="H52" s="58">
         <v>95.0</v>
       </c>
-      <c r="I52" s="56">
+      <c r="I52" s="58">
         <v>153.0</v>
       </c>
       <c r="J52" s="57">
         <f t="shared" si="2"/>
         <v>85.56818182</v>
       </c>
-      <c r="K52" s="56">
+      <c r="K52" s="58">
         <v>44.0</v>
       </c>
-      <c r="L52" s="56">
+      <c r="L52" s="58">
         <v>43.0</v>
       </c>
-      <c r="M52" s="58">
+      <c r="M52" s="59">
         <f t="shared" si="3"/>
         <v>86.25</v>
       </c>
-      <c r="N52" s="59">
+      <c r="N52" s="60">
         <v>2.0</v>
       </c>
-      <c r="O52" s="59">
+      <c r="O52" s="60">
         <v>4.0</v>
       </c>
-      <c r="P52" s="59">
+      <c r="P52" s="60">
         <v>95.0</v>
       </c>
-      <c r="Q52" s="60">
+      <c r="Q52" s="61">
         <f t="shared" si="4"/>
         <v>96.33027523</v>
       </c>
-      <c r="R52" s="61">
+      <c r="R52" s="62">
         <v>4.0</v>
       </c>
-      <c r="S52" s="62">
+      <c r="S52" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T52" s="63">
+      <c r="T52" s="67">
         <v>51.0</v>
       </c>
-      <c r="U52" s="63">
+      <c r="U52" s="67">
         <v>60.0</v>
       </c>
-      <c r="V52" s="64">
+      <c r="V52" s="65">
         <f t="shared" si="6"/>
         <v>77.75</v>
       </c>
-      <c r="W52" s="65">
+      <c r="W52" s="66">
         <f t="shared" si="7"/>
         <v>84.19499583</v>
       </c>
-      <c r="X52" s="65">
+      <c r="X52" s="66">
         <f>VLOOKUP(W52,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2.25</v>
       </c>
-      <c r="Y52" s="65" t="str">
+      <c r="Y52" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z52" s="65"/>
+      <c r="Z52" s="66"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="52">
@@ -5740,72 +5743,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G53" s="56">
+      <c r="G53" s="58">
         <v>99.0</v>
       </c>
-      <c r="H53" s="56">
+      <c r="H53" s="58">
         <v>115.0</v>
       </c>
-      <c r="I53" s="56">
+      <c r="I53" s="58">
         <v>122.0</v>
       </c>
       <c r="J53" s="57">
         <f t="shared" si="2"/>
         <v>88.18181818</v>
       </c>
-      <c r="K53" s="56">
+      <c r="K53" s="58">
         <v>43.0</v>
       </c>
-      <c r="L53" s="56">
+      <c r="L53" s="58">
         <v>52.0</v>
       </c>
-      <c r="M53" s="58">
+      <c r="M53" s="59">
         <f t="shared" si="3"/>
         <v>89.58333333</v>
       </c>
-      <c r="N53" s="59">
+      <c r="N53" s="60">
         <v>2.0</v>
       </c>
-      <c r="O53" s="59">
+      <c r="O53" s="60">
         <v>5.0</v>
       </c>
-      <c r="P53" s="59">
+      <c r="P53" s="60">
         <v>91.0</v>
       </c>
-      <c r="Q53" s="60">
+      <c r="Q53" s="61">
         <f t="shared" si="4"/>
         <v>94.95412844</v>
       </c>
-      <c r="R53" s="61">
+      <c r="R53" s="62">
         <v>4.0</v>
       </c>
-      <c r="S53" s="62">
+      <c r="S53" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T53" s="63">
+      <c r="T53" s="67">
         <v>78.0</v>
       </c>
-      <c r="U53" s="63">
+      <c r="U53" s="67">
         <v>93.0</v>
       </c>
-      <c r="V53" s="64">
+      <c r="V53" s="65">
         <f t="shared" si="6"/>
         <v>92.75</v>
       </c>
-      <c r="W53" s="65">
+      <c r="W53" s="66">
         <f t="shared" si="7"/>
         <v>89.93933139</v>
       </c>
-      <c r="X53" s="65">
+      <c r="X53" s="66">
         <f>VLOOKUP(W53,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y53" s="65" t="str">
+      <c r="Y53" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z53" s="65"/>
+      <c r="Z53" s="66"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="52">
@@ -5825,72 +5828,72 @@
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="G54" s="56">
+      <c r="G54" s="58">
         <v>100.0</v>
       </c>
-      <c r="H54" s="56">
+      <c r="H54" s="58">
         <v>69.0</v>
       </c>
-      <c r="I54" s="56">
+      <c r="I54" s="58">
         <v>120.0</v>
       </c>
       <c r="J54" s="57">
         <f t="shared" si="2"/>
         <v>82.84090909</v>
       </c>
-      <c r="K54" s="56">
+      <c r="K54" s="58">
         <v>43.0</v>
       </c>
-      <c r="L54" s="56">
+      <c r="L54" s="58">
         <v>36.0</v>
       </c>
-      <c r="M54" s="58">
+      <c r="M54" s="59">
         <f t="shared" si="3"/>
         <v>82.91666667</v>
       </c>
-      <c r="N54" s="59">
+      <c r="N54" s="60">
         <v>1.0</v>
       </c>
-      <c r="O54" s="59">
+      <c r="O54" s="60">
         <v>5.0</v>
       </c>
-      <c r="P54" s="59">
+      <c r="P54" s="60">
         <v>68.0</v>
       </c>
-      <c r="Q54" s="60">
+      <c r="Q54" s="61">
         <f t="shared" si="4"/>
         <v>83.94495413</v>
       </c>
-      <c r="R54" s="61">
+      <c r="R54" s="62">
         <v>4.0</v>
       </c>
-      <c r="S54" s="62">
+      <c r="S54" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T54" s="63">
+      <c r="T54" s="67">
         <v>68.0</v>
       </c>
-      <c r="U54" s="63">
+      <c r="U54" s="67">
         <v>82.0</v>
       </c>
-      <c r="V54" s="64">
+      <c r="V54" s="65">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
-      <c r="W54" s="65">
+      <c r="W54" s="66">
         <f t="shared" si="7"/>
         <v>83.77734918</v>
       </c>
-      <c r="X54" s="65">
+      <c r="X54" s="66">
         <f>VLOOKUP(W54,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2.25</v>
       </c>
-      <c r="Y54" s="65" t="str">
+      <c r="Y54" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z54" s="65"/>
+      <c r="Z54" s="66"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="52">
@@ -5910,72 +5913,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G55" s="56">
+      <c r="G55" s="58">
         <v>77.0</v>
       </c>
-      <c r="H55" s="56">
+      <c r="H55" s="58">
         <v>65.0</v>
       </c>
-      <c r="I55" s="56">
+      <c r="I55" s="58">
         <v>194.0</v>
       </c>
       <c r="J55" s="57">
         <f t="shared" si="2"/>
         <v>88.18181818</v>
       </c>
-      <c r="K55" s="56">
+      <c r="K55" s="58">
         <v>55.0</v>
       </c>
-      <c r="L55" s="56">
+      <c r="L55" s="58">
         <v>39.0</v>
       </c>
-      <c r="M55" s="58">
+      <c r="M55" s="59">
         <f t="shared" si="3"/>
         <v>89.16666667</v>
       </c>
-      <c r="N55" s="59">
+      <c r="N55" s="60">
         <v>2.0</v>
       </c>
-      <c r="O55" s="59">
+      <c r="O55" s="60">
         <v>7.0</v>
       </c>
-      <c r="P55" s="59">
+      <c r="P55" s="60">
         <v>86.0</v>
       </c>
-      <c r="Q55" s="60">
+      <c r="Q55" s="61">
         <f t="shared" si="4"/>
         <v>93.57798165</v>
       </c>
-      <c r="R55" s="61">
+      <c r="R55" s="62">
         <v>10.0</v>
       </c>
-      <c r="S55" s="62">
+      <c r="S55" s="63">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="T55" s="63">
+      <c r="T55" s="67">
         <v>59.0</v>
       </c>
-      <c r="U55" s="63">
+      <c r="U55" s="67">
         <v>100.0</v>
       </c>
-      <c r="V55" s="64">
+      <c r="V55" s="65">
         <f t="shared" si="6"/>
         <v>89.75</v>
       </c>
-      <c r="W55" s="65">
+      <c r="W55" s="66">
         <f t="shared" si="7"/>
         <v>90.24957604</v>
       </c>
-      <c r="X55" s="65">
+      <c r="X55" s="66">
         <f>VLOOKUP(W55,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y55" s="65" t="str">
+      <c r="Y55" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z55" s="65"/>
+      <c r="Z55" s="66"/>
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="52">
@@ -5995,72 +5998,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G56" s="56">
+      <c r="G56" s="58">
         <v>75.0</v>
       </c>
-      <c r="H56" s="56">
+      <c r="H56" s="58">
         <v>76.0</v>
       </c>
-      <c r="I56" s="56">
+      <c r="I56" s="58">
         <v>173.0</v>
       </c>
       <c r="J56" s="57">
         <f t="shared" si="2"/>
         <v>86.81818182</v>
       </c>
-      <c r="K56" s="56">
+      <c r="K56" s="58">
         <v>52.0</v>
       </c>
-      <c r="L56" s="56">
+      <c r="L56" s="58">
         <v>49.0</v>
       </c>
-      <c r="M56" s="58">
+      <c r="M56" s="59">
         <f t="shared" si="3"/>
         <v>92.08333333</v>
       </c>
-      <c r="N56" s="59">
+      <c r="N56" s="60">
         <v>2.0</v>
       </c>
-      <c r="O56" s="59">
+      <c r="O56" s="60">
         <v>4.0</v>
       </c>
-      <c r="P56" s="59">
+      <c r="P56" s="60">
         <v>64.0</v>
       </c>
-      <c r="Q56" s="60">
+      <c r="Q56" s="61">
         <f t="shared" si="4"/>
         <v>82.11009174</v>
       </c>
-      <c r="R56" s="61">
+      <c r="R56" s="62">
         <v>4.0</v>
       </c>
-      <c r="S56" s="62">
+      <c r="S56" s="63">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="T56" s="63">
+      <c r="T56" s="67">
         <v>53.0</v>
       </c>
-      <c r="U56" s="63">
+      <c r="U56" s="67">
         <v>95.0</v>
       </c>
-      <c r="V56" s="64">
+      <c r="V56" s="65">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="W56" s="65">
+      <c r="W56" s="66">
         <f t="shared" si="7"/>
         <v>86.37863497</v>
       </c>
-      <c r="X56" s="65">
+      <c r="X56" s="66">
         <f>VLOOKUP(W56,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y56" s="65" t="str">
+      <c r="Y56" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z56" s="65"/>
+      <c r="Z56" s="66"/>
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="52">
@@ -6080,72 +6083,72 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="58">
         <v>95.0</v>
       </c>
-      <c r="H57" s="56">
+      <c r="H57" s="58">
         <v>78.0</v>
       </c>
-      <c r="I57" s="56">
+      <c r="I57" s="58">
         <v>161.0</v>
       </c>
       <c r="J57" s="57">
         <f t="shared" si="2"/>
         <v>87.95454545</v>
       </c>
-      <c r="K57" s="56">
+      <c r="K57" s="58">
         <v>34.0</v>
       </c>
-      <c r="L57" s="56">
+      <c r="L57" s="58">
         <v>45.0</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="59">
         <f t="shared" si="3"/>
         <v>82.91666667</v>
       </c>
-      <c r="N57" s="59">
+      <c r="N57" s="60">
         <v>1.0</v>
       </c>
-      <c r="O57" s="59">
+      <c r="O57" s="60">
         <v>7.0</v>
       </c>
-      <c r="P57" s="59">
+      <c r="P57" s="60">
         <v>82.0</v>
       </c>
-      <c r="Q57" s="60">
+      <c r="Q57" s="61">
         <f t="shared" si="4"/>
         <v>91.28440367</v>
       </c>
-      <c r="R57" s="61">
+      <c r="R57" s="62">
         <v>7.0</v>
       </c>
-      <c r="S57" s="62">
+      <c r="S57" s="63">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="T57" s="63">
+      <c r="T57" s="67">
         <v>69.0</v>
       </c>
-      <c r="U57" s="63">
+      <c r="U57" s="67">
         <v>67.0</v>
       </c>
-      <c r="V57" s="64">
+      <c r="V57" s="65">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="W57" s="65">
+      <c r="W57" s="66">
         <f t="shared" si="7"/>
         <v>86.11235752</v>
       </c>
-      <c r="X57" s="65">
+      <c r="X57" s="66">
         <f>VLOOKUP(W57,'Grade Range'!$A$2:$B$11,2)</f>
         <v>2</v>
       </c>
-      <c r="Y57" s="65" t="str">
+      <c r="Y57" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z57" s="65"/>
+      <c r="Z57" s="66"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="52">
@@ -6163,74 +6166,74 @@
       <c r="E58" s="54"/>
       <c r="F58" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G58" s="56">
-        <v>68.0</v>
+        <v>50.0</v>
       </c>
       <c r="H58" s="56">
-        <v>71.0</v>
+        <v>50.0</v>
       </c>
       <c r="I58" s="56">
-        <v>188.0</v>
+        <v>70.0</v>
       </c>
       <c r="J58" s="57">
         <f t="shared" si="2"/>
-        <v>87.15909091</v>
+        <v>69.31818182</v>
       </c>
       <c r="K58" s="56">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="L58" s="56">
-        <v>54.0</v>
-      </c>
-      <c r="M58" s="58">
+        <v>35.0</v>
+      </c>
+      <c r="M58" s="59">
         <f t="shared" si="3"/>
-        <v>95.41666667</v>
-      </c>
-      <c r="N58" s="59">
+        <v>77.08333333</v>
+      </c>
+      <c r="N58" s="60">
         <v>1.0</v>
       </c>
-      <c r="O58" s="59">
+      <c r="O58" s="60">
         <v>4.0</v>
       </c>
-      <c r="P58" s="59">
+      <c r="P58" s="60">
         <v>62.0</v>
       </c>
-      <c r="Q58" s="60">
+      <c r="Q58" s="61">
         <f t="shared" si="4"/>
         <v>80.73394495</v>
       </c>
-      <c r="R58" s="61">
+      <c r="R58" s="62">
         <v>8.0</v>
       </c>
-      <c r="S58" s="62">
+      <c r="S58" s="63">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="T58" s="63">
-        <v>72.0</v>
-      </c>
-      <c r="U58" s="63">
-        <v>61.0</v>
-      </c>
-      <c r="V58" s="64">
+      <c r="T58" s="64">
+        <v>43.0</v>
+      </c>
+      <c r="U58" s="64">
+        <v>50.0</v>
+      </c>
+      <c r="V58" s="65">
         <f t="shared" si="6"/>
-        <v>83.25</v>
-      </c>
-      <c r="W58" s="65">
+        <v>73.25</v>
+      </c>
+      <c r="W58" s="66">
         <f t="shared" si="7"/>
-        <v>86.81615235</v>
-      </c>
-      <c r="X58" s="65">
+        <v>74.79721296</v>
+      </c>
+      <c r="X58" s="66">
         <f>VLOOKUP(W58,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y58" s="65" t="str">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="66" t="str">
         <f t="shared" si="8"/>
-        <v>Passed</v>
-      </c>
-      <c r="Z58" s="65"/>
+        <v>Failed</v>
+      </c>
+      <c r="Z58" s="66"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="52">
@@ -6250,72 +6253,72 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="G59" s="56">
+      <c r="G59" s="58">
         <v>73.0</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="58">
         <v>85.0</v>
       </c>
-      <c r="I59" s="56">
+      <c r="I59" s="58">
         <v>124.0</v>
       </c>
       <c r="J59" s="57">
         <f t="shared" si="2"/>
         <v>82.04545455</v>
       </c>
-      <c r="K59" s="56">
+      <c r="K59" s="58">
         <v>51.0</v>
       </c>
-      <c r="L59" s="56">
+      <c r="L59" s="58">
         <v>32.0</v>
       </c>
-      <c r="M59" s="58">
+      <c r="M59" s="59">
         <f t="shared" si="3"/>
         <v>84.58333333</v>
       </c>
-      <c r="N59" s="59">
+      <c r="N59" s="60">
         <v>2.0</v>
       </c>
-      <c r="O59" s="59">
+      <c r="O59" s="60">
         <v>7.0</v>
       </c>
-      <c r="P59" s="59">
+      <c r="P59" s="60">
         <v>99.0</v>
       </c>
-      <c r="Q59" s="60">
+      <c r="Q59" s="61">
         <f t="shared" si="4"/>
         <v>99.5412844</v>
       </c>
-      <c r="R59" s="61">
+      <c r="R59" s="62">
         <v>9.0</v>
       </c>
-      <c r="S59" s="62">
+      <c r="S59" s="63">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="T59" s="63">
+      <c r="T59" s="67">
         <v>100.0</v>
       </c>
-      <c r="U59" s="63">
+      <c r="U59" s="67">
         <v>90.0</v>
       </c>
-      <c r="V59" s="64">
+      <c r="V59" s="65">
         <f t="shared" si="6"/>
         <v>97.5</v>
       </c>
-      <c r="W59" s="65">
+      <c r="W59" s="66">
         <f t="shared" si="7"/>
         <v>90.46149569</v>
       </c>
-      <c r="X59" s="65">
+      <c r="X59" s="66">
         <f>VLOOKUP(W59,'Grade Range'!$A$2:$B$11,2)</f>
         <v>1.75</v>
       </c>
-      <c r="Y59" s="65" t="str">
+      <c r="Y59" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z59" s="65"/>
+      <c r="Z59" s="66"/>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="52">
@@ -6333,105 +6336,105 @@
       <c r="E60" s="54"/>
       <c r="F60" s="55">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="G60" s="56">
-        <v>78.0</v>
+        <v>50.0</v>
       </c>
       <c r="H60" s="56">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="I60" s="56">
-        <v>152.0</v>
+        <v>70.0</v>
       </c>
       <c r="J60" s="57">
         <f t="shared" si="2"/>
-        <v>82.95454545</v>
+        <v>69.31818182</v>
       </c>
       <c r="K60" s="56">
-        <v>51.0</v>
-      </c>
-      <c r="L60" s="56">
+        <v>30.0</v>
+      </c>
+      <c r="L60" s="58">
         <v>34.0</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="59">
         <f t="shared" si="3"/>
-        <v>85.41666667</v>
-      </c>
-      <c r="N60" s="59">
+        <v>76.66666667</v>
+      </c>
+      <c r="N60" s="60">
         <v>1.0</v>
       </c>
-      <c r="O60" s="59">
+      <c r="O60" s="60">
         <v>7.0</v>
       </c>
-      <c r="P60" s="59">
+      <c r="P60" s="60">
         <v>75.0</v>
       </c>
-      <c r="Q60" s="60">
+      <c r="Q60" s="61">
         <f t="shared" si="4"/>
         <v>88.0733945</v>
       </c>
-      <c r="R60" s="61">
+      <c r="R60" s="62">
         <v>5.0</v>
       </c>
-      <c r="S60" s="62">
+      <c r="S60" s="63">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="T60" s="63">
-        <v>93.0</v>
-      </c>
-      <c r="U60" s="63">
-        <v>83.0</v>
-      </c>
-      <c r="V60" s="64">
+      <c r="T60" s="64">
+        <v>75.0</v>
+      </c>
+      <c r="U60" s="64">
+        <v>50.0</v>
+      </c>
+      <c r="V60" s="65">
         <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="W60" s="65">
+        <v>81.25</v>
+      </c>
+      <c r="W60" s="66">
         <f t="shared" si="7"/>
-        <v>87.13070614</v>
-      </c>
-      <c r="X60" s="65">
+        <v>77.46479705</v>
+      </c>
+      <c r="X60" s="66">
         <f>VLOOKUP(W60,'Grade Range'!$A$2:$B$11,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Y60" s="65" t="str">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" s="66" t="str">
         <f t="shared" si="8"/>
         <v>Passed</v>
       </c>
-      <c r="Z60" s="65"/>
+      <c r="Z60" s="66"/>
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="89"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="90"/>
-      <c r="U61" s="90"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="91"/>
-      <c r="X61" s="91"/>
-      <c r="Y61" s="91"/>
-      <c r="Z61" s="91"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="91"/>
+      <c r="U61" s="91"/>
+      <c r="V61" s="89"/>
+      <c r="W61" s="92"/>
+      <c r="X61" s="92"/>
+      <c r="Y61" s="92"/>
+      <c r="Z61" s="92"/>
     </row>
     <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="93" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="15"/>
@@ -12885,7 +12888,7 @@
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>75</v>
       </c>
     </row>
@@ -13063,62 +13066,62 @@
       <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="95" t="s">
         <v>79</v>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="95" t="s">
         <v>80</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="94" t="s">
+      <c r="K9" s="95" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="95" t="s">
         <v>82</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="95" t="s">
+      <c r="O9" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="P9" s="97" t="s">
         <v>84</v>
       </c>
       <c r="Q9" s="16"/>
-      <c r="R9" s="96" t="s">
+      <c r="R9" s="97" t="s">
         <v>85</v>
       </c>
       <c r="S9" s="16"/>
-      <c r="T9" s="96" t="s">
+      <c r="T9" s="97" t="s">
         <v>86</v>
       </c>
       <c r="U9" s="16"/>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="97" t="s">
         <v>87</v>
       </c>
       <c r="W9" s="16"/>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="97" t="s">
         <v>88</v>
       </c>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="96" t="s">
+      <c r="Z9" s="97" t="s">
         <v>89</v>
       </c>
       <c r="AA9" s="16"/>
-      <c r="AB9" s="96" t="s">
+      <c r="AB9" s="97" t="s">
         <v>90</v>
       </c>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="96" t="s">
+      <c r="AD9" s="97" t="s">
         <v>91</v>
       </c>
       <c r="AE9" s="16"/>
-      <c r="AF9" s="96" t="s">
+      <c r="AF9" s="97" t="s">
         <v>92</v>
       </c>
       <c r="AG9" s="16"/>
-      <c r="AH9" s="95" t="s">
+      <c r="AH9" s="96" t="s">
         <v>93</v>
       </c>
       <c r="AI9" s="17" t="s">
@@ -13157,58 +13160,58 @@
       <c r="N10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98">
+      <c r="O10" s="98"/>
+      <c r="P10" s="99">
         <v>1.0</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="98">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="99">
         <v>1.0</v>
       </c>
-      <c r="S10" s="100" t="s">
+      <c r="S10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="98">
+      <c r="T10" s="99">
         <v>1.0</v>
       </c>
-      <c r="U10" s="100" t="s">
+      <c r="U10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="98">
+      <c r="V10" s="99">
         <v>1.0</v>
       </c>
-      <c r="W10" s="100" t="s">
+      <c r="W10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="98">
+      <c r="X10" s="99">
         <v>1.0</v>
       </c>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="98">
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="99">
         <v>1.0</v>
       </c>
-      <c r="AA10" s="100" t="s">
+      <c r="AA10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="98">
+      <c r="AB10" s="99">
         <v>1.0</v>
       </c>
-      <c r="AC10" s="100" t="s">
+      <c r="AC10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AD10" s="98">
+      <c r="AD10" s="99">
         <v>1.0</v>
       </c>
-      <c r="AE10" s="100" t="s">
+      <c r="AE10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AF10" s="98">
+      <c r="AF10" s="99">
         <v>1.0</v>
       </c>
-      <c r="AG10" s="100" t="s">
+      <c r="AG10" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="AH10" s="97"/>
+      <c r="AH10" s="98"/>
       <c r="AI10" s="28" t="s">
         <v>22</v>
       </c>
@@ -13232,83 +13235,83 @@
       <c r="G11" s="33">
         <v>100.0</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="102">
         <v>0.4</v>
       </c>
       <c r="I11" s="33">
         <v>100.0</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="102">
         <v>0.4</v>
       </c>
       <c r="K11" s="33">
         <v>100.0</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="102">
         <v>0.1</v>
       </c>
       <c r="M11" s="33">
         <v>100.0</v>
       </c>
-      <c r="N11" s="101">
+      <c r="N11" s="102">
         <v>0.1</v>
       </c>
-      <c r="O11" s="102"/>
+      <c r="O11" s="103"/>
       <c r="P11" s="33">
         <v>100.0</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="Q11" s="104">
         <v>0.125</v>
       </c>
       <c r="R11" s="33">
         <v>100.0</v>
       </c>
-      <c r="S11" s="104">
+      <c r="S11" s="105">
         <v>0.1</v>
       </c>
       <c r="T11" s="33">
         <v>100.0</v>
       </c>
-      <c r="U11" s="103">
+      <c r="U11" s="104">
         <v>0.075</v>
       </c>
       <c r="V11" s="33">
         <v>100.0</v>
       </c>
-      <c r="W11" s="104">
+      <c r="W11" s="105">
         <v>0.15</v>
       </c>
       <c r="X11" s="33">
         <v>100.0</v>
       </c>
-      <c r="Y11" s="104">
+      <c r="Y11" s="105">
         <v>0.15</v>
       </c>
       <c r="Z11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AA11" s="103">
+      <c r="AA11" s="104">
         <v>0.075</v>
       </c>
       <c r="AB11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AC11" s="104">
+      <c r="AC11" s="105">
         <v>0.1</v>
       </c>
       <c r="AD11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AE11" s="103">
+      <c r="AE11" s="104">
         <v>0.125</v>
       </c>
       <c r="AF11" s="33">
         <v>100.0</v>
       </c>
-      <c r="AG11" s="104">
+      <c r="AG11" s="105">
         <v>0.1</v>
       </c>
-      <c r="AH11" s="102"/>
+      <c r="AH11" s="103"/>
       <c r="AI11" s="41"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="42">
@@ -13332,7 +13335,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="48"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="105"/>
+      <c r="O12" s="106"/>
       <c r="P12" s="48"/>
       <c r="Q12" s="49"/>
       <c r="R12" s="48"/>
@@ -13351,7 +13354,7 @@
       <c r="AE12" s="49"/>
       <c r="AF12" s="48"/>
       <c r="AG12" s="49"/>
-      <c r="AH12" s="105"/>
+      <c r="AH12" s="106"/>
       <c r="AI12" s="50"/>
       <c r="AJ12" s="50"/>
       <c r="AK12" s="50"/>
@@ -13364,101 +13367,101 @@
       <c r="B13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="55">
         <f t="shared" ref="F13:F45" si="1">AJ13</f>
         <v>5</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="G13" s="110"/>
+      <c r="H13" s="111">
         <f t="shared" ref="H13:H45" si="2">SUM(G13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110">
+      <c r="I13" s="110"/>
+      <c r="J13" s="111">
         <f t="shared" ref="J13:J45" si="3">SUM(I13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112">
+      <c r="K13" s="112"/>
+      <c r="L13" s="113">
         <f t="shared" ref="L13:L45" si="4">SUM(K13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="M13" s="113"/>
-      <c r="N13" s="112">
+      <c r="M13" s="114"/>
+      <c r="N13" s="113">
         <f t="shared" ref="N13:N45" si="5">SUM(M13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="O13" s="114">
+      <c r="O13" s="115">
         <f t="shared" ref="O13:O45" si="6">($H13*$H$11)+($J13*$J$11)+($L13*$L$11)+($N13*$N$11)</f>
         <v>50</v>
       </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="116">
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117">
         <f t="shared" ref="Q13:Q45" si="7">SUM(P13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="R13" s="115"/>
-      <c r="S13" s="116">
+      <c r="R13" s="116"/>
+      <c r="S13" s="117">
         <f t="shared" ref="S13:S45" si="8">SUM(R13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="118">
+      <c r="T13" s="118"/>
+      <c r="U13" s="119">
         <f t="shared" ref="U13:U45" si="9">SUM(T13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="V13" s="119"/>
-      <c r="W13" s="118">
+      <c r="V13" s="120"/>
+      <c r="W13" s="119">
         <f t="shared" ref="W13:W45" si="10">SUM(V13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="116">
+      <c r="X13" s="116"/>
+      <c r="Y13" s="117">
         <f t="shared" ref="Y13:Y45" si="11">SUM(X13)/SUM($G$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="116">
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="117">
         <f t="shared" ref="AA13:AA45" si="12">SUM(Z13)/SUM($I$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="118">
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="119">
         <f t="shared" ref="AC13:AC45" si="13">SUM(AB13)/SUM($K$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="118">
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="119">
         <f t="shared" ref="AE13:AE45" si="14">SUM(AD13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="118">
+      <c r="AF13" s="120"/>
+      <c r="AG13" s="119">
         <f t="shared" ref="AG13:AG45" si="15">SUM(AF13)/SUM($M$11)*50+50</f>
         <v>50</v>
       </c>
-      <c r="AH13" s="114">
+      <c r="AH13" s="115">
         <f t="shared" ref="AH13:AH45" si="16">($Q13*$Q$11)+($S13*$S$11)+($U13*$U$11)+($W13*$W$11)+($Y13*$Y$11)+($AA13*$AA$11)+($AC13*$AC$11)+($AE13*$AE$11)+($AG13*$AG$11)</f>
         <v>50</v>
       </c>
-      <c r="AI13" s="65">
+      <c r="AI13" s="66">
         <f t="shared" ref="AI13:AI46" si="17">($O13*0.3)+($AH13*0.7)</f>
         <v>50</v>
       </c>
-      <c r="AJ13" s="65">
+      <c r="AJ13" s="66">
         <f>VLOOKUP(AI13,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK13" s="65" t="str">
+      <c r="AK13" s="66" t="str">
         <f t="shared" ref="AK13:AK45" si="18">IF(AJ13&lt;=3,"Passed","Failed")</f>
         <v>Failed</v>
       </c>
-      <c r="AL13" s="65"/>
+      <c r="AL13" s="66"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="52">
@@ -13467,101 +13470,101 @@
       <c r="B14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="120" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110">
+      <c r="G14" s="110"/>
+      <c r="H14" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110">
+      <c r="I14" s="110"/>
+      <c r="J14" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112">
+      <c r="K14" s="112"/>
+      <c r="L14" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M14" s="113"/>
-      <c r="N14" s="112">
+      <c r="M14" s="114"/>
+      <c r="N14" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O14" s="114">
+      <c r="O14" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="116">
+      <c r="P14" s="116"/>
+      <c r="Q14" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R14" s="115"/>
-      <c r="S14" s="116">
+      <c r="R14" s="116"/>
+      <c r="S14" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T14" s="117"/>
-      <c r="U14" s="118">
+      <c r="T14" s="118"/>
+      <c r="U14" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V14" s="119"/>
-      <c r="W14" s="118">
+      <c r="V14" s="120"/>
+      <c r="W14" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="116">
+      <c r="X14" s="116"/>
+      <c r="Y14" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="116">
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="118">
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="118">
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="118">
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH14" s="114">
+      <c r="AH14" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI14" s="65">
+      <c r="AI14" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ14" s="65">
+      <c r="AJ14" s="66">
         <f>VLOOKUP(AI14,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK14" s="65" t="str">
+      <c r="AK14" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL14" s="65"/>
+      <c r="AL14" s="66"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="52">
@@ -13570,101 +13573,101 @@
       <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="120" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110">
+      <c r="G15" s="110"/>
+      <c r="H15" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110">
+      <c r="I15" s="110"/>
+      <c r="J15" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112">
+      <c r="K15" s="112"/>
+      <c r="L15" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M15" s="113"/>
-      <c r="N15" s="112">
+      <c r="M15" s="114"/>
+      <c r="N15" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O15" s="114">
+      <c r="O15" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="116">
+      <c r="P15" s="116"/>
+      <c r="Q15" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R15" s="115"/>
-      <c r="S15" s="116">
+      <c r="R15" s="116"/>
+      <c r="S15" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T15" s="117"/>
-      <c r="U15" s="118">
+      <c r="T15" s="118"/>
+      <c r="U15" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V15" s="119"/>
-      <c r="W15" s="118">
+      <c r="V15" s="120"/>
+      <c r="W15" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="116">
+      <c r="X15" s="116"/>
+      <c r="Y15" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="116">
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="118">
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="118">
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="118">
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH15" s="114">
+      <c r="AH15" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI15" s="65">
+      <c r="AI15" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ15" s="65">
+      <c r="AJ15" s="66">
         <f>VLOOKUP(AI15,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK15" s="65" t="str">
+      <c r="AK15" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL15" s="65"/>
+      <c r="AL15" s="66"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="52">
@@ -13673,101 +13676,101 @@
       <c r="B16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="120" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="G16" s="110"/>
+      <c r="H16" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110">
+      <c r="I16" s="110"/>
+      <c r="J16" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112">
+      <c r="K16" s="112"/>
+      <c r="L16" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="112">
+      <c r="M16" s="114"/>
+      <c r="N16" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O16" s="114">
+      <c r="O16" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116">
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R16" s="115"/>
-      <c r="S16" s="116">
+      <c r="R16" s="116"/>
+      <c r="S16" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="118">
+      <c r="T16" s="118"/>
+      <c r="U16" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V16" s="119"/>
-      <c r="W16" s="118">
+      <c r="V16" s="120"/>
+      <c r="W16" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="116">
+      <c r="X16" s="116"/>
+      <c r="Y16" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="116">
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="118">
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="118">
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="118">
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH16" s="114">
+      <c r="AH16" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI16" s="65">
+      <c r="AI16" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ16" s="65">
+      <c r="AJ16" s="66">
         <f>VLOOKUP(AI16,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK16" s="65" t="str">
+      <c r="AK16" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL16" s="65"/>
+      <c r="AL16" s="66"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="52">
@@ -13776,101 +13779,101 @@
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="120" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110">
+      <c r="G17" s="110"/>
+      <c r="H17" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110">
+      <c r="I17" s="110"/>
+      <c r="J17" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112">
+      <c r="K17" s="112"/>
+      <c r="L17" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M17" s="113"/>
-      <c r="N17" s="112">
+      <c r="M17" s="114"/>
+      <c r="N17" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O17" s="114">
+      <c r="O17" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116">
+      <c r="P17" s="116"/>
+      <c r="Q17" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R17" s="115"/>
-      <c r="S17" s="116">
+      <c r="R17" s="116"/>
+      <c r="S17" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="118">
+      <c r="T17" s="118"/>
+      <c r="U17" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V17" s="119"/>
-      <c r="W17" s="118">
+      <c r="V17" s="120"/>
+      <c r="W17" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="116">
+      <c r="X17" s="116"/>
+      <c r="Y17" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="116">
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="118">
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="118">
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="118">
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH17" s="114">
+      <c r="AH17" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI17" s="65">
+      <c r="AI17" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ17" s="65">
+      <c r="AJ17" s="66">
         <f>VLOOKUP(AI17,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK17" s="65" t="str">
+      <c r="AK17" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL17" s="65"/>
+      <c r="AL17" s="66"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="52">
@@ -13879,101 +13882,101 @@
       <c r="B18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="120" t="s">
+      <c r="C18" s="107"/>
+      <c r="D18" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110">
+      <c r="G18" s="110"/>
+      <c r="H18" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I18" s="109"/>
-      <c r="J18" s="110">
+      <c r="I18" s="110"/>
+      <c r="J18" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112">
+      <c r="K18" s="112"/>
+      <c r="L18" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="112">
+      <c r="M18" s="114"/>
+      <c r="N18" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O18" s="114">
+      <c r="O18" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116">
+      <c r="P18" s="116"/>
+      <c r="Q18" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R18" s="115"/>
-      <c r="S18" s="116">
+      <c r="R18" s="116"/>
+      <c r="S18" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T18" s="117"/>
-      <c r="U18" s="118">
+      <c r="T18" s="118"/>
+      <c r="U18" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V18" s="119"/>
-      <c r="W18" s="118">
+      <c r="V18" s="120"/>
+      <c r="W18" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="116">
+      <c r="X18" s="116"/>
+      <c r="Y18" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z18" s="115"/>
-      <c r="AA18" s="116">
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="118">
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="118">
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="118">
+      <c r="AF18" s="120"/>
+      <c r="AG18" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH18" s="114">
+      <c r="AH18" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI18" s="65">
+      <c r="AI18" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ18" s="65">
+      <c r="AJ18" s="66">
         <f>VLOOKUP(AI18,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK18" s="65" t="str">
+      <c r="AK18" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL18" s="65"/>
+      <c r="AL18" s="66"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="52">
@@ -13982,202 +13985,202 @@
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="120" t="s">
+      <c r="C19" s="107"/>
+      <c r="D19" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="G19" s="110"/>
+      <c r="H19" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="110">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K19" s="111"/>
-      <c r="L19" s="112">
+      <c r="K19" s="112"/>
+      <c r="L19" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="112">
+      <c r="M19" s="114"/>
+      <c r="N19" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O19" s="114">
+      <c r="O19" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116">
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R19" s="115"/>
-      <c r="S19" s="116">
+      <c r="R19" s="116"/>
+      <c r="S19" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T19" s="117"/>
-      <c r="U19" s="118">
+      <c r="T19" s="118"/>
+      <c r="U19" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V19" s="119"/>
-      <c r="W19" s="118">
+      <c r="V19" s="120"/>
+      <c r="W19" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="116">
+      <c r="X19" s="116"/>
+      <c r="Y19" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="116">
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="118">
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="118">
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF19" s="119"/>
-      <c r="AG19" s="118">
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH19" s="114">
+      <c r="AH19" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI19" s="65">
+      <c r="AI19" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ19" s="65">
+      <c r="AJ19" s="66">
         <f>VLOOKUP(AI19,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK19" s="65" t="str">
+      <c r="AK19" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL19" s="65"/>
+      <c r="AL19" s="66"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="52">
         <v>8.0</v>
       </c>
       <c r="B20" s="52"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="120" t="s">
+      <c r="C20" s="107"/>
+      <c r="D20" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="G20" s="110"/>
+      <c r="H20" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K20" s="111"/>
-      <c r="L20" s="112">
+      <c r="K20" s="112"/>
+      <c r="L20" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M20" s="113"/>
-      <c r="N20" s="112">
+      <c r="M20" s="114"/>
+      <c r="N20" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O20" s="114">
+      <c r="O20" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116">
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R20" s="115"/>
-      <c r="S20" s="116">
+      <c r="R20" s="116"/>
+      <c r="S20" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="118">
+      <c r="T20" s="118"/>
+      <c r="U20" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V20" s="119"/>
-      <c r="W20" s="118">
+      <c r="V20" s="120"/>
+      <c r="W20" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="116">
+      <c r="X20" s="116"/>
+      <c r="Y20" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="116">
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="118">
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="118">
+      <c r="AD20" s="120"/>
+      <c r="AE20" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="118">
+      <c r="AF20" s="120"/>
+      <c r="AG20" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH20" s="114">
+      <c r="AH20" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI20" s="65">
+      <c r="AI20" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ20" s="65">
+      <c r="AJ20" s="66">
         <f>VLOOKUP(AI20,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK20" s="65" t="str">
+      <c r="AK20" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL20" s="65"/>
+      <c r="AL20" s="66"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="52">
@@ -14186,101 +14189,101 @@
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="120" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="108"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="G21" s="110"/>
+      <c r="H21" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="110">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K21" s="111"/>
-      <c r="L21" s="112">
+      <c r="K21" s="112"/>
+      <c r="L21" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M21" s="113"/>
-      <c r="N21" s="112">
+      <c r="M21" s="114"/>
+      <c r="N21" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O21" s="114">
+      <c r="O21" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116">
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="116">
+      <c r="R21" s="116"/>
+      <c r="S21" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="118">
+      <c r="T21" s="118"/>
+      <c r="U21" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V21" s="119"/>
-      <c r="W21" s="118">
+      <c r="V21" s="120"/>
+      <c r="W21" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="116">
+      <c r="X21" s="116"/>
+      <c r="Y21" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="116">
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="118">
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="118">
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="118">
+      <c r="AF21" s="120"/>
+      <c r="AG21" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH21" s="114">
+      <c r="AH21" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI21" s="65">
+      <c r="AI21" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ21" s="65">
+      <c r="AJ21" s="66">
         <f>VLOOKUP(AI21,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK21" s="65" t="str">
+      <c r="AK21" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL21" s="65"/>
+      <c r="AL21" s="66"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="52">
@@ -14289,101 +14292,101 @@
       <c r="B22" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="120" t="s">
+      <c r="C22" s="107"/>
+      <c r="D22" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="108"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="G22" s="110"/>
+      <c r="H22" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112">
+      <c r="K22" s="112"/>
+      <c r="L22" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M22" s="113"/>
-      <c r="N22" s="112">
+      <c r="M22" s="114"/>
+      <c r="N22" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="116">
+      <c r="P22" s="116"/>
+      <c r="Q22" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R22" s="115"/>
-      <c r="S22" s="116">
+      <c r="R22" s="116"/>
+      <c r="S22" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T22" s="117"/>
-      <c r="U22" s="118">
+      <c r="T22" s="118"/>
+      <c r="U22" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V22" s="119"/>
-      <c r="W22" s="118">
+      <c r="V22" s="120"/>
+      <c r="W22" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X22" s="115"/>
-      <c r="Y22" s="116">
+      <c r="X22" s="116"/>
+      <c r="Y22" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="116">
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="118">
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="118">
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF22" s="119"/>
-      <c r="AG22" s="118">
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH22" s="114">
+      <c r="AH22" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI22" s="65">
+      <c r="AI22" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ22" s="65">
+      <c r="AJ22" s="66">
         <f>VLOOKUP(AI22,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK22" s="65" t="str">
+      <c r="AK22" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL22" s="65"/>
+      <c r="AL22" s="66"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="52">
@@ -14392,101 +14395,101 @@
       <c r="B23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="120" t="s">
+      <c r="C23" s="107"/>
+      <c r="D23" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110">
+      <c r="G23" s="110"/>
+      <c r="H23" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110">
+      <c r="I23" s="110"/>
+      <c r="J23" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K23" s="111"/>
-      <c r="L23" s="112">
+      <c r="K23" s="112"/>
+      <c r="L23" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="112">
+      <c r="M23" s="114"/>
+      <c r="N23" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O23" s="114">
+      <c r="O23" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116">
+      <c r="P23" s="116"/>
+      <c r="Q23" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R23" s="115"/>
-      <c r="S23" s="116">
+      <c r="R23" s="116"/>
+      <c r="S23" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T23" s="117"/>
-      <c r="U23" s="118">
+      <c r="T23" s="118"/>
+      <c r="U23" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V23" s="119"/>
-      <c r="W23" s="118">
+      <c r="V23" s="120"/>
+      <c r="W23" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X23" s="115"/>
-      <c r="Y23" s="116">
+      <c r="X23" s="116"/>
+      <c r="Y23" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z23" s="115"/>
-      <c r="AA23" s="116">
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="118">
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="118">
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF23" s="119"/>
-      <c r="AG23" s="118">
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH23" s="114">
+      <c r="AH23" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI23" s="65">
+      <c r="AI23" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ23" s="65">
+      <c r="AJ23" s="66">
         <f>VLOOKUP(AI23,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK23" s="65" t="str">
+      <c r="AK23" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL23" s="65"/>
+      <c r="AL23" s="66"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="52">
@@ -14495,101 +14498,101 @@
       <c r="B24" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="120" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="G24" s="110"/>
+      <c r="H24" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110">
+      <c r="I24" s="110"/>
+      <c r="J24" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K24" s="111"/>
-      <c r="L24" s="112">
+      <c r="K24" s="112"/>
+      <c r="L24" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="112">
+      <c r="M24" s="114"/>
+      <c r="N24" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O24" s="114">
+      <c r="O24" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="116">
+      <c r="P24" s="116"/>
+      <c r="Q24" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R24" s="115"/>
-      <c r="S24" s="116">
+      <c r="R24" s="116"/>
+      <c r="S24" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T24" s="117"/>
-      <c r="U24" s="118">
+      <c r="T24" s="118"/>
+      <c r="U24" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V24" s="119"/>
-      <c r="W24" s="118">
+      <c r="V24" s="120"/>
+      <c r="W24" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="116">
+      <c r="X24" s="116"/>
+      <c r="Y24" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z24" s="115"/>
-      <c r="AA24" s="116">
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="118">
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="118">
+      <c r="AD24" s="120"/>
+      <c r="AE24" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="118">
+      <c r="AF24" s="120"/>
+      <c r="AG24" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH24" s="114">
+      <c r="AH24" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI24" s="65">
+      <c r="AI24" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ24" s="65">
+      <c r="AJ24" s="66">
         <f>VLOOKUP(AI24,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK24" s="121" t="str">
+      <c r="AK24" s="122" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL24" s="65"/>
+      <c r="AL24" s="66"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="52">
@@ -14598,101 +14601,101 @@
       <c r="B25" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="120" t="s">
+      <c r="C25" s="107"/>
+      <c r="D25" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110">
+      <c r="G25" s="110"/>
+      <c r="H25" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110">
+      <c r="I25" s="110"/>
+      <c r="J25" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K25" s="111"/>
-      <c r="L25" s="112">
+      <c r="K25" s="112"/>
+      <c r="L25" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="112">
+      <c r="M25" s="114"/>
+      <c r="N25" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O25" s="114">
+      <c r="O25" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="116">
+      <c r="P25" s="116"/>
+      <c r="Q25" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R25" s="115"/>
-      <c r="S25" s="116">
+      <c r="R25" s="116"/>
+      <c r="S25" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T25" s="117"/>
-      <c r="U25" s="118">
+      <c r="T25" s="118"/>
+      <c r="U25" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V25" s="119"/>
-      <c r="W25" s="118">
+      <c r="V25" s="120"/>
+      <c r="W25" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="116">
+      <c r="X25" s="116"/>
+      <c r="Y25" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="116">
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="118">
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="118">
+      <c r="AD25" s="120"/>
+      <c r="AE25" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="118">
+      <c r="AF25" s="120"/>
+      <c r="AG25" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH25" s="114">
+      <c r="AH25" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI25" s="65">
+      <c r="AI25" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ25" s="65">
+      <c r="AJ25" s="66">
         <f>VLOOKUP(AI25,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK25" s="65" t="str">
+      <c r="AK25" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL25" s="65"/>
+      <c r="AL25" s="66"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="52">
@@ -14701,101 +14704,101 @@
       <c r="B26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="120" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110">
+      <c r="G26" s="110"/>
+      <c r="H26" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110">
+      <c r="I26" s="110"/>
+      <c r="J26" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K26" s="111"/>
-      <c r="L26" s="112">
+      <c r="K26" s="112"/>
+      <c r="L26" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M26" s="113"/>
-      <c r="N26" s="112">
+      <c r="M26" s="114"/>
+      <c r="N26" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O26" s="114">
+      <c r="O26" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="116">
+      <c r="P26" s="116"/>
+      <c r="Q26" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R26" s="115"/>
-      <c r="S26" s="116">
+      <c r="R26" s="116"/>
+      <c r="S26" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T26" s="117"/>
-      <c r="U26" s="118">
+      <c r="T26" s="118"/>
+      <c r="U26" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V26" s="119"/>
-      <c r="W26" s="118">
+      <c r="V26" s="120"/>
+      <c r="W26" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X26" s="115"/>
-      <c r="Y26" s="116">
+      <c r="X26" s="116"/>
+      <c r="Y26" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="116">
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="118">
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="118">
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF26" s="119"/>
-      <c r="AG26" s="118">
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH26" s="114">
+      <c r="AH26" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI26" s="65">
+      <c r="AI26" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ26" s="65">
+      <c r="AJ26" s="66">
         <f>VLOOKUP(AI26,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK26" s="65" t="str">
+      <c r="AK26" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL26" s="65"/>
+      <c r="AL26" s="66"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="52">
@@ -14804,101 +14807,101 @@
       <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="120" t="s">
+      <c r="C27" s="107"/>
+      <c r="D27" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110">
+      <c r="G27" s="110"/>
+      <c r="H27" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I27" s="109"/>
-      <c r="J27" s="110">
+      <c r="I27" s="110"/>
+      <c r="J27" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K27" s="111"/>
-      <c r="L27" s="112">
+      <c r="K27" s="112"/>
+      <c r="L27" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M27" s="113"/>
-      <c r="N27" s="112">
+      <c r="M27" s="114"/>
+      <c r="N27" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O27" s="114">
+      <c r="O27" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="116">
+      <c r="P27" s="116"/>
+      <c r="Q27" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R27" s="115"/>
-      <c r="S27" s="116">
+      <c r="R27" s="116"/>
+      <c r="S27" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T27" s="117"/>
-      <c r="U27" s="118">
+      <c r="T27" s="118"/>
+      <c r="U27" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V27" s="119"/>
-      <c r="W27" s="118">
+      <c r="V27" s="120"/>
+      <c r="W27" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X27" s="115"/>
-      <c r="Y27" s="116">
+      <c r="X27" s="116"/>
+      <c r="Y27" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z27" s="115"/>
-      <c r="AA27" s="116">
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="118">
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="118">
+      <c r="AD27" s="120"/>
+      <c r="AE27" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF27" s="119"/>
-      <c r="AG27" s="118">
+      <c r="AF27" s="120"/>
+      <c r="AG27" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH27" s="114">
+      <c r="AH27" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI27" s="65">
+      <c r="AI27" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ27" s="65">
+      <c r="AJ27" s="66">
         <f>VLOOKUP(AI27,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK27" s="65" t="str">
+      <c r="AK27" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL27" s="65"/>
+      <c r="AL27" s="66"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="52">
@@ -14907,101 +14910,101 @@
       <c r="B28" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="120" t="s">
+      <c r="C28" s="107"/>
+      <c r="D28" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110">
+      <c r="G28" s="110"/>
+      <c r="H28" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I28" s="109"/>
-      <c r="J28" s="110">
+      <c r="I28" s="110"/>
+      <c r="J28" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K28" s="111"/>
-      <c r="L28" s="112">
+      <c r="K28" s="112"/>
+      <c r="L28" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M28" s="113"/>
-      <c r="N28" s="112">
+      <c r="M28" s="114"/>
+      <c r="N28" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O28" s="114">
+      <c r="O28" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="116">
+      <c r="P28" s="116"/>
+      <c r="Q28" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R28" s="115"/>
-      <c r="S28" s="116">
+      <c r="R28" s="116"/>
+      <c r="S28" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T28" s="117"/>
-      <c r="U28" s="118">
+      <c r="T28" s="118"/>
+      <c r="U28" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V28" s="119"/>
-      <c r="W28" s="118">
+      <c r="V28" s="120"/>
+      <c r="W28" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="116">
+      <c r="X28" s="116"/>
+      <c r="Y28" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="116">
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="118">
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="118">
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF28" s="119"/>
-      <c r="AG28" s="118">
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH28" s="114">
+      <c r="AH28" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI28" s="65">
+      <c r="AI28" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ28" s="65">
+      <c r="AJ28" s="66">
         <f>VLOOKUP(AI28,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK28" s="65" t="str">
+      <c r="AK28" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL28" s="65"/>
+      <c r="AL28" s="66"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="52">
@@ -15010,101 +15013,101 @@
       <c r="B29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="120" t="s">
+      <c r="C29" s="107"/>
+      <c r="D29" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G29" s="109"/>
-      <c r="H29" s="110">
+      <c r="G29" s="110"/>
+      <c r="H29" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110">
+      <c r="I29" s="110"/>
+      <c r="J29" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K29" s="111"/>
-      <c r="L29" s="112">
+      <c r="K29" s="112"/>
+      <c r="L29" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M29" s="113"/>
-      <c r="N29" s="112">
+      <c r="M29" s="114"/>
+      <c r="N29" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O29" s="114">
+      <c r="O29" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="116">
+      <c r="P29" s="116"/>
+      <c r="Q29" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R29" s="115"/>
-      <c r="S29" s="116">
+      <c r="R29" s="116"/>
+      <c r="S29" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T29" s="117"/>
-      <c r="U29" s="118">
+      <c r="T29" s="118"/>
+      <c r="U29" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V29" s="119"/>
-      <c r="W29" s="118">
+      <c r="V29" s="120"/>
+      <c r="W29" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X29" s="115"/>
-      <c r="Y29" s="116">
+      <c r="X29" s="116"/>
+      <c r="Y29" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z29" s="115"/>
-      <c r="AA29" s="116">
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="118">
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="118">
+      <c r="AD29" s="120"/>
+      <c r="AE29" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF29" s="119"/>
-      <c r="AG29" s="118">
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH29" s="114">
+      <c r="AH29" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI29" s="65">
+      <c r="AI29" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ29" s="65">
+      <c r="AJ29" s="66">
         <f>VLOOKUP(AI29,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK29" s="65" t="str">
+      <c r="AK29" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL29" s="65"/>
+      <c r="AL29" s="66"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="52">
@@ -15113,101 +15116,101 @@
       <c r="B30" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="120" t="s">
+      <c r="C30" s="107"/>
+      <c r="D30" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="108"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110">
+      <c r="G30" s="110"/>
+      <c r="H30" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110">
+      <c r="I30" s="110"/>
+      <c r="J30" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K30" s="111"/>
-      <c r="L30" s="112">
+      <c r="K30" s="112"/>
+      <c r="L30" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M30" s="113"/>
-      <c r="N30" s="112">
+      <c r="M30" s="114"/>
+      <c r="N30" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O30" s="114">
+      <c r="O30" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="116">
+      <c r="P30" s="116"/>
+      <c r="Q30" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R30" s="115"/>
-      <c r="S30" s="116">
+      <c r="R30" s="116"/>
+      <c r="S30" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T30" s="117"/>
-      <c r="U30" s="118">
+      <c r="T30" s="118"/>
+      <c r="U30" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V30" s="119"/>
-      <c r="W30" s="118">
+      <c r="V30" s="120"/>
+      <c r="W30" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="116">
+      <c r="X30" s="116"/>
+      <c r="Y30" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="116">
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="118">
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="118">
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF30" s="119"/>
-      <c r="AG30" s="118">
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH30" s="114">
+      <c r="AH30" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI30" s="65">
+      <c r="AI30" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ30" s="65">
+      <c r="AJ30" s="66">
         <f>VLOOKUP(AI30,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK30" s="65" t="str">
+      <c r="AK30" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL30" s="65"/>
+      <c r="AL30" s="66"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="52">
@@ -15216,101 +15219,101 @@
       <c r="B31" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="120" t="s">
+      <c r="C31" s="107"/>
+      <c r="D31" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="108"/>
+      <c r="E31" s="109"/>
       <c r="F31" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G31" s="109"/>
-      <c r="H31" s="110">
+      <c r="G31" s="110"/>
+      <c r="H31" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I31" s="109"/>
-      <c r="J31" s="110">
+      <c r="I31" s="110"/>
+      <c r="J31" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K31" s="111"/>
-      <c r="L31" s="112">
+      <c r="K31" s="112"/>
+      <c r="L31" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="112">
+      <c r="M31" s="114"/>
+      <c r="N31" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O31" s="114">
+      <c r="O31" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="116">
+      <c r="P31" s="116"/>
+      <c r="Q31" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R31" s="115"/>
-      <c r="S31" s="116">
+      <c r="R31" s="116"/>
+      <c r="S31" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T31" s="117"/>
-      <c r="U31" s="118">
+      <c r="T31" s="118"/>
+      <c r="U31" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V31" s="119"/>
-      <c r="W31" s="118">
+      <c r="V31" s="120"/>
+      <c r="W31" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="116">
+      <c r="X31" s="116"/>
+      <c r="Y31" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z31" s="115"/>
-      <c r="AA31" s="116">
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="118">
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="118">
+      <c r="AD31" s="120"/>
+      <c r="AE31" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF31" s="119"/>
-      <c r="AG31" s="118">
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH31" s="114">
+      <c r="AH31" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI31" s="65">
+      <c r="AI31" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ31" s="65">
+      <c r="AJ31" s="66">
         <f>VLOOKUP(AI31,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK31" s="65" t="str">
+      <c r="AK31" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL31" s="65"/>
+      <c r="AL31" s="66"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="52">
@@ -15319,101 +15322,101 @@
       <c r="B32" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="120" t="s">
+      <c r="C32" s="107"/>
+      <c r="D32" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="108"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="110">
+      <c r="G32" s="110"/>
+      <c r="H32" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I32" s="109"/>
-      <c r="J32" s="110">
+      <c r="I32" s="110"/>
+      <c r="J32" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K32" s="111"/>
-      <c r="L32" s="112">
+      <c r="K32" s="112"/>
+      <c r="L32" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M32" s="113"/>
-      <c r="N32" s="112">
+      <c r="M32" s="114"/>
+      <c r="N32" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O32" s="114">
+      <c r="O32" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="116">
+      <c r="P32" s="116"/>
+      <c r="Q32" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R32" s="115"/>
-      <c r="S32" s="116">
+      <c r="R32" s="116"/>
+      <c r="S32" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T32" s="117"/>
-      <c r="U32" s="118">
+      <c r="T32" s="118"/>
+      <c r="U32" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V32" s="119"/>
-      <c r="W32" s="118">
+      <c r="V32" s="120"/>
+      <c r="W32" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="116">
+      <c r="X32" s="116"/>
+      <c r="Y32" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="116">
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="118">
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="118">
+      <c r="AD32" s="120"/>
+      <c r="AE32" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF32" s="119"/>
-      <c r="AG32" s="118">
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH32" s="114">
+      <c r="AH32" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI32" s="65">
+      <c r="AI32" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ32" s="65">
+      <c r="AJ32" s="66">
         <f>VLOOKUP(AI32,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK32" s="65" t="str">
+      <c r="AK32" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL32" s="65"/>
+      <c r="AL32" s="66"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="52">
@@ -15422,101 +15425,101 @@
       <c r="B33" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="120" t="s">
+      <c r="C33" s="107"/>
+      <c r="D33" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="108"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G33" s="109"/>
-      <c r="H33" s="110">
+      <c r="G33" s="110"/>
+      <c r="H33" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110">
+      <c r="I33" s="110"/>
+      <c r="J33" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K33" s="111"/>
-      <c r="L33" s="112">
+      <c r="K33" s="112"/>
+      <c r="L33" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M33" s="113"/>
-      <c r="N33" s="112">
+      <c r="M33" s="114"/>
+      <c r="N33" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O33" s="114">
+      <c r="O33" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="116">
+      <c r="P33" s="116"/>
+      <c r="Q33" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R33" s="115"/>
-      <c r="S33" s="116">
+      <c r="R33" s="116"/>
+      <c r="S33" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T33" s="117"/>
-      <c r="U33" s="118">
+      <c r="T33" s="118"/>
+      <c r="U33" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V33" s="119"/>
-      <c r="W33" s="118">
+      <c r="V33" s="120"/>
+      <c r="W33" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="116">
+      <c r="X33" s="116"/>
+      <c r="Y33" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="116">
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="118">
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="118">
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="118">
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH33" s="114">
+      <c r="AH33" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI33" s="65">
+      <c r="AI33" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ33" s="65">
+      <c r="AJ33" s="66">
         <f>VLOOKUP(AI33,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK33" s="65" t="str">
+      <c r="AK33" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL33" s="65"/>
+      <c r="AL33" s="66"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="52">
@@ -15525,101 +15528,101 @@
       <c r="B34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="120" t="s">
+      <c r="C34" s="107"/>
+      <c r="D34" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="108"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G34" s="109"/>
-      <c r="H34" s="110">
+      <c r="G34" s="110"/>
+      <c r="H34" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110">
+      <c r="I34" s="110"/>
+      <c r="J34" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112">
+      <c r="K34" s="112"/>
+      <c r="L34" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M34" s="113"/>
-      <c r="N34" s="112">
+      <c r="M34" s="114"/>
+      <c r="N34" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O34" s="114">
+      <c r="O34" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="116">
+      <c r="P34" s="116"/>
+      <c r="Q34" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R34" s="115"/>
-      <c r="S34" s="116">
+      <c r="R34" s="116"/>
+      <c r="S34" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T34" s="117"/>
-      <c r="U34" s="118">
+      <c r="T34" s="118"/>
+      <c r="U34" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V34" s="119"/>
-      <c r="W34" s="118">
+      <c r="V34" s="120"/>
+      <c r="W34" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="116">
+      <c r="X34" s="116"/>
+      <c r="Y34" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z34" s="115"/>
-      <c r="AA34" s="116">
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="118">
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="118">
+      <c r="AD34" s="120"/>
+      <c r="AE34" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF34" s="119"/>
-      <c r="AG34" s="118">
+      <c r="AF34" s="120"/>
+      <c r="AG34" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH34" s="114">
+      <c r="AH34" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI34" s="65">
+      <c r="AI34" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ34" s="65">
+      <c r="AJ34" s="66">
         <f>VLOOKUP(AI34,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK34" s="65" t="str">
+      <c r="AK34" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL34" s="65"/>
+      <c r="AL34" s="66"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="52">
@@ -15628,101 +15631,101 @@
       <c r="B35" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="120" t="s">
+      <c r="C35" s="107"/>
+      <c r="D35" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="108"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G35" s="109"/>
-      <c r="H35" s="110">
+      <c r="G35" s="110"/>
+      <c r="H35" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I35" s="109"/>
-      <c r="J35" s="110">
+      <c r="I35" s="110"/>
+      <c r="J35" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K35" s="111"/>
-      <c r="L35" s="112">
+      <c r="K35" s="112"/>
+      <c r="L35" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="112">
+      <c r="M35" s="114"/>
+      <c r="N35" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O35" s="114">
+      <c r="O35" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="116">
+      <c r="P35" s="116"/>
+      <c r="Q35" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R35" s="115"/>
-      <c r="S35" s="116">
+      <c r="R35" s="116"/>
+      <c r="S35" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T35" s="117"/>
-      <c r="U35" s="118">
+      <c r="T35" s="118"/>
+      <c r="U35" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V35" s="119"/>
-      <c r="W35" s="118">
+      <c r="V35" s="120"/>
+      <c r="W35" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="116">
+      <c r="X35" s="116"/>
+      <c r="Y35" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="116">
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="118">
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD35" s="119"/>
-      <c r="AE35" s="118">
+      <c r="AD35" s="120"/>
+      <c r="AE35" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF35" s="119"/>
-      <c r="AG35" s="118">
+      <c r="AF35" s="120"/>
+      <c r="AG35" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH35" s="114">
+      <c r="AH35" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI35" s="65">
+      <c r="AI35" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ35" s="65">
+      <c r="AJ35" s="66">
         <f>VLOOKUP(AI35,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK35" s="65" t="str">
+      <c r="AK35" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL35" s="65"/>
+      <c r="AL35" s="66"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="52">
@@ -15731,101 +15734,101 @@
       <c r="B36" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="120" t="s">
+      <c r="C36" s="107"/>
+      <c r="D36" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="108"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110">
+      <c r="G36" s="110"/>
+      <c r="H36" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I36" s="109"/>
-      <c r="J36" s="110">
+      <c r="I36" s="110"/>
+      <c r="J36" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K36" s="111"/>
-      <c r="L36" s="112">
+      <c r="K36" s="112"/>
+      <c r="L36" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M36" s="113"/>
-      <c r="N36" s="112">
+      <c r="M36" s="114"/>
+      <c r="N36" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O36" s="114">
+      <c r="O36" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="116">
+      <c r="P36" s="116"/>
+      <c r="Q36" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R36" s="115"/>
-      <c r="S36" s="116">
+      <c r="R36" s="116"/>
+      <c r="S36" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T36" s="117"/>
-      <c r="U36" s="118">
+      <c r="T36" s="118"/>
+      <c r="U36" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V36" s="119"/>
-      <c r="W36" s="118">
+      <c r="V36" s="120"/>
+      <c r="W36" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="116">
+      <c r="X36" s="116"/>
+      <c r="Y36" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="116">
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="118">
+      <c r="AB36" s="118"/>
+      <c r="AC36" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD36" s="119"/>
-      <c r="AE36" s="118">
+      <c r="AD36" s="120"/>
+      <c r="AE36" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF36" s="119"/>
-      <c r="AG36" s="118">
+      <c r="AF36" s="120"/>
+      <c r="AG36" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH36" s="114">
+      <c r="AH36" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI36" s="65">
+      <c r="AI36" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ36" s="65">
+      <c r="AJ36" s="66">
         <f>VLOOKUP(AI36,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK36" s="65" t="str">
+      <c r="AK36" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL36" s="65"/>
+      <c r="AL36" s="66"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="52">
@@ -15834,101 +15837,101 @@
       <c r="B37" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="120" t="s">
+      <c r="C37" s="107"/>
+      <c r="D37" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="108"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110">
+      <c r="G37" s="110"/>
+      <c r="H37" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I37" s="109"/>
-      <c r="J37" s="110">
+      <c r="I37" s="110"/>
+      <c r="J37" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K37" s="111"/>
-      <c r="L37" s="112">
+      <c r="K37" s="112"/>
+      <c r="L37" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="112">
+      <c r="M37" s="114"/>
+      <c r="N37" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O37" s="114">
+      <c r="O37" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="116">
+      <c r="P37" s="116"/>
+      <c r="Q37" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R37" s="115"/>
-      <c r="S37" s="116">
+      <c r="R37" s="116"/>
+      <c r="S37" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T37" s="117"/>
-      <c r="U37" s="118">
+      <c r="T37" s="118"/>
+      <c r="U37" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V37" s="119"/>
-      <c r="W37" s="118">
+      <c r="V37" s="120"/>
+      <c r="W37" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="116">
+      <c r="X37" s="116"/>
+      <c r="Y37" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z37" s="115"/>
-      <c r="AA37" s="116">
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="118">
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD37" s="119"/>
-      <c r="AE37" s="118">
+      <c r="AD37" s="120"/>
+      <c r="AE37" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="118">
+      <c r="AF37" s="120"/>
+      <c r="AG37" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH37" s="114">
+      <c r="AH37" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI37" s="65">
+      <c r="AI37" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ37" s="65">
+      <c r="AJ37" s="66">
         <f>VLOOKUP(AI37,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK37" s="65" t="str">
+      <c r="AK37" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL37" s="65"/>
+      <c r="AL37" s="66"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="52">
@@ -15937,101 +15940,101 @@
       <c r="B38" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="120" t="s">
+      <c r="C38" s="107"/>
+      <c r="D38" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="108"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G38" s="109"/>
-      <c r="H38" s="110">
+      <c r="G38" s="110"/>
+      <c r="H38" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I38" s="109"/>
-      <c r="J38" s="110">
+      <c r="I38" s="110"/>
+      <c r="J38" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112">
+      <c r="K38" s="112"/>
+      <c r="L38" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M38" s="113"/>
-      <c r="N38" s="112">
+      <c r="M38" s="114"/>
+      <c r="N38" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O38" s="114">
+      <c r="O38" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="116">
+      <c r="P38" s="116"/>
+      <c r="Q38" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R38" s="115"/>
-      <c r="S38" s="116">
+      <c r="R38" s="116"/>
+      <c r="S38" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T38" s="117"/>
-      <c r="U38" s="118">
+      <c r="T38" s="118"/>
+      <c r="U38" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V38" s="119"/>
-      <c r="W38" s="118">
+      <c r="V38" s="120"/>
+      <c r="W38" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X38" s="115"/>
-      <c r="Y38" s="116">
+      <c r="X38" s="116"/>
+      <c r="Y38" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z38" s="115"/>
-      <c r="AA38" s="116">
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="118">
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD38" s="119"/>
-      <c r="AE38" s="118">
+      <c r="AD38" s="120"/>
+      <c r="AE38" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF38" s="119"/>
-      <c r="AG38" s="118">
+      <c r="AF38" s="120"/>
+      <c r="AG38" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH38" s="114">
+      <c r="AH38" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI38" s="65">
+      <c r="AI38" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ38" s="65">
+      <c r="AJ38" s="66">
         <f>VLOOKUP(AI38,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK38" s="65" t="str">
+      <c r="AK38" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL38" s="65"/>
+      <c r="AL38" s="66"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="52">
@@ -16040,101 +16043,101 @@
       <c r="B39" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="120" t="s">
+      <c r="C39" s="107"/>
+      <c r="D39" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="108"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110">
+      <c r="G39" s="110"/>
+      <c r="H39" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="110">
+      <c r="I39" s="110"/>
+      <c r="J39" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K39" s="111"/>
-      <c r="L39" s="112">
+      <c r="K39" s="112"/>
+      <c r="L39" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M39" s="113"/>
-      <c r="N39" s="112">
+      <c r="M39" s="114"/>
+      <c r="N39" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O39" s="114">
+      <c r="O39" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="116">
+      <c r="P39" s="116"/>
+      <c r="Q39" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R39" s="115"/>
-      <c r="S39" s="116">
+      <c r="R39" s="116"/>
+      <c r="S39" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T39" s="117"/>
-      <c r="U39" s="118">
+      <c r="T39" s="118"/>
+      <c r="U39" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V39" s="119"/>
-      <c r="W39" s="118">
+      <c r="V39" s="120"/>
+      <c r="W39" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X39" s="115"/>
-      <c r="Y39" s="116">
+      <c r="X39" s="116"/>
+      <c r="Y39" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z39" s="115"/>
-      <c r="AA39" s="116">
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="118">
+      <c r="AB39" s="118"/>
+      <c r="AC39" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD39" s="119"/>
-      <c r="AE39" s="118">
+      <c r="AD39" s="120"/>
+      <c r="AE39" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF39" s="119"/>
-      <c r="AG39" s="118">
+      <c r="AF39" s="120"/>
+      <c r="AG39" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH39" s="114">
+      <c r="AH39" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI39" s="65">
+      <c r="AI39" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ39" s="65">
+      <c r="AJ39" s="66">
         <f>VLOOKUP(AI39,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK39" s="65" t="str">
+      <c r="AK39" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL39" s="65"/>
+      <c r="AL39" s="66"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="52">
@@ -16143,101 +16146,101 @@
       <c r="B40" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="120" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="108"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G40" s="109"/>
-      <c r="H40" s="110">
+      <c r="G40" s="110"/>
+      <c r="H40" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110">
+      <c r="I40" s="110"/>
+      <c r="J40" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K40" s="111"/>
-      <c r="L40" s="112">
+      <c r="K40" s="112"/>
+      <c r="L40" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M40" s="113"/>
-      <c r="N40" s="112">
+      <c r="M40" s="114"/>
+      <c r="N40" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O40" s="114">
+      <c r="O40" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="116">
+      <c r="P40" s="116"/>
+      <c r="Q40" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R40" s="115"/>
-      <c r="S40" s="116">
+      <c r="R40" s="116"/>
+      <c r="S40" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T40" s="117"/>
-      <c r="U40" s="118">
+      <c r="T40" s="118"/>
+      <c r="U40" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V40" s="119"/>
-      <c r="W40" s="118">
+      <c r="V40" s="120"/>
+      <c r="W40" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="116">
+      <c r="X40" s="116"/>
+      <c r="Y40" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="116">
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="118">
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD40" s="119"/>
-      <c r="AE40" s="118">
+      <c r="AD40" s="120"/>
+      <c r="AE40" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF40" s="119"/>
-      <c r="AG40" s="118">
+      <c r="AF40" s="120"/>
+      <c r="AG40" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH40" s="114">
+      <c r="AH40" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI40" s="65">
+      <c r="AI40" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ40" s="65">
+      <c r="AJ40" s="66">
         <f>VLOOKUP(AI40,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK40" s="65" t="str">
+      <c r="AK40" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL40" s="65"/>
+      <c r="AL40" s="66"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="52">
@@ -16246,101 +16249,101 @@
       <c r="B41" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="120" t="s">
+      <c r="C41" s="107"/>
+      <c r="D41" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="108"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G41" s="109"/>
-      <c r="H41" s="110">
+      <c r="G41" s="110"/>
+      <c r="H41" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I41" s="109"/>
-      <c r="J41" s="110">
+      <c r="I41" s="110"/>
+      <c r="J41" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K41" s="111"/>
-      <c r="L41" s="112">
+      <c r="K41" s="112"/>
+      <c r="L41" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M41" s="113"/>
-      <c r="N41" s="112">
+      <c r="M41" s="114"/>
+      <c r="N41" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O41" s="114">
+      <c r="O41" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="116">
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R41" s="115"/>
-      <c r="S41" s="116">
+      <c r="R41" s="116"/>
+      <c r="S41" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T41" s="117"/>
-      <c r="U41" s="118">
+      <c r="T41" s="118"/>
+      <c r="U41" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V41" s="119"/>
-      <c r="W41" s="118">
+      <c r="V41" s="120"/>
+      <c r="W41" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X41" s="115"/>
-      <c r="Y41" s="116">
+      <c r="X41" s="116"/>
+      <c r="Y41" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z41" s="115"/>
-      <c r="AA41" s="116">
+      <c r="Z41" s="116"/>
+      <c r="AA41" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB41" s="117"/>
-      <c r="AC41" s="118">
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="118">
+      <c r="AD41" s="120"/>
+      <c r="AE41" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF41" s="119"/>
-      <c r="AG41" s="118">
+      <c r="AF41" s="120"/>
+      <c r="AG41" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH41" s="114">
+      <c r="AH41" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI41" s="65">
+      <c r="AI41" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ41" s="65">
+      <c r="AJ41" s="66">
         <f>VLOOKUP(AI41,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK41" s="65" t="str">
+      <c r="AK41" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL41" s="65"/>
+      <c r="AL41" s="66"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="52">
@@ -16349,101 +16352,101 @@
       <c r="B42" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="120" t="s">
+      <c r="C42" s="107"/>
+      <c r="D42" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="108"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110">
+      <c r="G42" s="110"/>
+      <c r="H42" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I42" s="109"/>
-      <c r="J42" s="110">
+      <c r="I42" s="110"/>
+      <c r="J42" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K42" s="111"/>
-      <c r="L42" s="112">
+      <c r="K42" s="112"/>
+      <c r="L42" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M42" s="113"/>
-      <c r="N42" s="112">
+      <c r="M42" s="114"/>
+      <c r="N42" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O42" s="114">
+      <c r="O42" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="116">
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R42" s="115"/>
-      <c r="S42" s="116">
+      <c r="R42" s="116"/>
+      <c r="S42" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T42" s="117"/>
-      <c r="U42" s="118">
+      <c r="T42" s="118"/>
+      <c r="U42" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V42" s="119"/>
-      <c r="W42" s="118">
+      <c r="V42" s="120"/>
+      <c r="W42" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X42" s="115"/>
-      <c r="Y42" s="116">
+      <c r="X42" s="116"/>
+      <c r="Y42" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z42" s="115"/>
-      <c r="AA42" s="116">
+      <c r="Z42" s="116"/>
+      <c r="AA42" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="118">
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD42" s="119"/>
-      <c r="AE42" s="118">
+      <c r="AD42" s="120"/>
+      <c r="AE42" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF42" s="119"/>
-      <c r="AG42" s="118">
+      <c r="AF42" s="120"/>
+      <c r="AG42" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH42" s="114">
+      <c r="AH42" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI42" s="65">
+      <c r="AI42" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ42" s="65">
+      <c r="AJ42" s="66">
         <f>VLOOKUP(AI42,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK42" s="65" t="str">
+      <c r="AK42" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL42" s="65"/>
+      <c r="AL42" s="66"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="52">
@@ -16452,101 +16455,101 @@
       <c r="B43" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="120" t="s">
+      <c r="C43" s="107"/>
+      <c r="D43" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="108"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G43" s="109"/>
-      <c r="H43" s="110">
+      <c r="G43" s="110"/>
+      <c r="H43" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I43" s="109"/>
-      <c r="J43" s="110">
+      <c r="I43" s="110"/>
+      <c r="J43" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K43" s="111"/>
-      <c r="L43" s="112">
+      <c r="K43" s="112"/>
+      <c r="L43" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M43" s="113"/>
-      <c r="N43" s="112">
+      <c r="M43" s="114"/>
+      <c r="N43" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O43" s="114">
+      <c r="O43" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P43" s="115"/>
-      <c r="Q43" s="116">
+      <c r="P43" s="116"/>
+      <c r="Q43" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R43" s="115"/>
-      <c r="S43" s="116">
+      <c r="R43" s="116"/>
+      <c r="S43" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T43" s="117"/>
-      <c r="U43" s="118">
+      <c r="T43" s="118"/>
+      <c r="U43" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V43" s="119"/>
-      <c r="W43" s="118">
+      <c r="V43" s="120"/>
+      <c r="W43" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X43" s="115"/>
-      <c r="Y43" s="116">
+      <c r="X43" s="116"/>
+      <c r="Y43" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z43" s="115"/>
-      <c r="AA43" s="116">
+      <c r="Z43" s="116"/>
+      <c r="AA43" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="118">
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="118">
+      <c r="AD43" s="120"/>
+      <c r="AE43" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="118">
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH43" s="114">
+      <c r="AH43" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI43" s="65">
+      <c r="AI43" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ43" s="65">
+      <c r="AJ43" s="66">
         <f>VLOOKUP(AI43,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK43" s="65" t="str">
+      <c r="AK43" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL43" s="65"/>
+      <c r="AL43" s="66"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="52">
@@ -16555,101 +16558,101 @@
       <c r="B44" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="122" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="108"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="110">
+      <c r="G44" s="110"/>
+      <c r="H44" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110">
+      <c r="I44" s="110"/>
+      <c r="J44" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K44" s="111"/>
-      <c r="L44" s="112">
+      <c r="K44" s="112"/>
+      <c r="L44" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M44" s="113"/>
-      <c r="N44" s="112">
+      <c r="M44" s="114"/>
+      <c r="N44" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O44" s="114">
+      <c r="O44" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="116">
+      <c r="P44" s="116"/>
+      <c r="Q44" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R44" s="115"/>
-      <c r="S44" s="116">
+      <c r="R44" s="116"/>
+      <c r="S44" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T44" s="117"/>
-      <c r="U44" s="118">
+      <c r="T44" s="118"/>
+      <c r="U44" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V44" s="119"/>
-      <c r="W44" s="118">
+      <c r="V44" s="120"/>
+      <c r="W44" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X44" s="115"/>
-      <c r="Y44" s="116">
+      <c r="X44" s="116"/>
+      <c r="Y44" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z44" s="115"/>
-      <c r="AA44" s="116">
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="118">
+      <c r="AB44" s="118"/>
+      <c r="AC44" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD44" s="119"/>
-      <c r="AE44" s="118">
+      <c r="AD44" s="120"/>
+      <c r="AE44" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF44" s="119"/>
-      <c r="AG44" s="118">
+      <c r="AF44" s="120"/>
+      <c r="AG44" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH44" s="114">
+      <c r="AH44" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI44" s="65">
+      <c r="AI44" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ44" s="65">
+      <c r="AJ44" s="66">
         <f>VLOOKUP(AI44,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK44" s="65" t="str">
+      <c r="AK44" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL44" s="65"/>
+      <c r="AL44" s="66"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="52">
@@ -16658,150 +16661,150 @@
       <c r="B45" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="122" t="s">
+      <c r="C45" s="107"/>
+      <c r="D45" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="108"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="55">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="110">
+      <c r="G45" s="110"/>
+      <c r="H45" s="111">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I45" s="109"/>
-      <c r="J45" s="110">
+      <c r="I45" s="110"/>
+      <c r="J45" s="111">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K45" s="111"/>
-      <c r="L45" s="112">
+      <c r="K45" s="112"/>
+      <c r="L45" s="113">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="M45" s="113"/>
-      <c r="N45" s="112">
+      <c r="M45" s="114"/>
+      <c r="N45" s="113">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O45" s="114">
+      <c r="O45" s="115">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="116">
+      <c r="P45" s="116"/>
+      <c r="Q45" s="117">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="R45" s="115"/>
-      <c r="S45" s="116">
+      <c r="R45" s="116"/>
+      <c r="S45" s="117">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="T45" s="117"/>
-      <c r="U45" s="118">
+      <c r="T45" s="118"/>
+      <c r="U45" s="119">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="V45" s="119"/>
-      <c r="W45" s="118">
+      <c r="V45" s="120"/>
+      <c r="W45" s="119">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="X45" s="115"/>
-      <c r="Y45" s="116">
+      <c r="X45" s="116"/>
+      <c r="Y45" s="117">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="Z45" s="115"/>
-      <c r="AA45" s="116">
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="117">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AB45" s="117"/>
-      <c r="AC45" s="118">
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="119">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="AD45" s="119"/>
-      <c r="AE45" s="118">
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="119">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="AF45" s="119"/>
-      <c r="AG45" s="118">
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="119">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="AH45" s="114">
+      <c r="AH45" s="115">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="AI45" s="65">
+      <c r="AI45" s="66">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="AJ45" s="65">
+      <c r="AJ45" s="66">
         <f>VLOOKUP(AI45,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK45" s="65" t="str">
+      <c r="AK45" s="66" t="str">
         <f t="shared" si="18"/>
         <v>Failed</v>
       </c>
-      <c r="AL45" s="65"/>
+      <c r="AL45" s="66"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="129"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="131"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="131"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="133"/>
-      <c r="V46" s="134"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="131"/>
-      <c r="Z46" s="130"/>
-      <c r="AA46" s="131"/>
-      <c r="AB46" s="132"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="134"/>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="134"/>
-      <c r="AG46" s="133"/>
-      <c r="AH46" s="88"/>
-      <c r="AI46" s="65">
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="131"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="131"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="133"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="135"/>
+      <c r="W46" s="134"/>
+      <c r="X46" s="131"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="131"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="133"/>
+      <c r="AC46" s="134"/>
+      <c r="AD46" s="135"/>
+      <c r="AE46" s="134"/>
+      <c r="AF46" s="135"/>
+      <c r="AG46" s="134"/>
+      <c r="AH46" s="89"/>
+      <c r="AI46" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AJ46" s="65">
+      <c r="AJ46" s="66">
         <f>VLOOKUP(AI46,'Grade Range'!$A$2:$B$11,2)</f>
         <v>5</v>
       </c>
-      <c r="AK46" s="91"/>
-      <c r="AL46" s="91"/>
+      <c r="AK46" s="92"/>
+      <c r="AL46" s="92"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="93" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="15"/>
@@ -16843,7 +16846,7 @@
       <c r="AL47" s="16"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="135"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -16883,7 +16886,7 @@
       <c r="AL48" s="7"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="135"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
@@ -16929,7 +16932,7 @@
       <c r="AL49" s="7"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="135"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -16972,93 +16975,93 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="136" t="s">
+      <c r="D51" s="137" t="s">
         <v>130</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="136"/>
+      <c r="J51" s="137"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="136" t="s">
+      <c r="P51" s="137" t="s">
         <v>131</v>
       </c>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="137" t="s">
+      <c r="Y51" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="Z51" s="137"/>
-      <c r="AA51" s="137"/>
-      <c r="AB51" s="137"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
+      <c r="Z51" s="138"/>
+      <c r="AA51" s="138"/>
+      <c r="AB51" s="138"/>
+      <c r="AC51" s="139"/>
+      <c r="AD51" s="139"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
-      <c r="AI51" s="139"/>
+      <c r="AI51" s="140"/>
       <c r="AL51" s="7"/>
     </row>
     <row r="52" ht="27.0" customHeight="1">
-      <c r="A52" s="140"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="141" t="s">
+      <c r="A52" s="141"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="142"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="142" t="s">
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="143"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="V52" s="140"/>
-      <c r="W52" s="140"/>
-      <c r="X52" s="140"/>
-      <c r="Y52" s="140" t="s">
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="Z52" s="140"/>
-      <c r="AA52" s="140"/>
-      <c r="AB52" s="140"/>
-      <c r="AC52" s="143"/>
-      <c r="AD52" s="143"/>
-      <c r="AE52" s="140"/>
-      <c r="AF52" s="140"/>
-      <c r="AG52" s="140"/>
-      <c r="AH52" s="140"/>
-      <c r="AI52" s="141"/>
-      <c r="AL52" s="140"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="144"/>
+      <c r="AD52" s="144"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
+      <c r="AI52" s="142"/>
+      <c r="AL52" s="141"/>
     </row>
     <row r="53" ht="27.0" customHeight="1">
-      <c r="A53" s="140"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="140"/>
-      <c r="J53" s="142"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="140"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="142"/>
-      <c r="W53" s="140"/>
-      <c r="X53" s="140"/>
-      <c r="Y53" s="140"/>
-      <c r="Z53" s="140"/>
-      <c r="AA53" s="142"/>
-      <c r="AE53" s="140"/>
-      <c r="AF53" s="140"/>
-      <c r="AG53" s="140"/>
-      <c r="AH53" s="140"/>
-      <c r="AI53" s="141"/>
-      <c r="AL53" s="140"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="142"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="143"/>
+      <c r="N53" s="141"/>
+      <c r="O53" s="141"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="141"/>
+      <c r="R53" s="141"/>
+      <c r="S53" s="143"/>
+      <c r="W53" s="141"/>
+      <c r="X53" s="141"/>
+      <c r="Y53" s="141"/>
+      <c r="Z53" s="141"/>
+      <c r="AA53" s="143"/>
+      <c r="AE53" s="141"/>
+      <c r="AF53" s="141"/>
+      <c r="AG53" s="141"/>
+      <c r="AH53" s="141"/>
+      <c r="AI53" s="142"/>
+      <c r="AL53" s="141"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="7"/>
@@ -25847,152 +25850,152 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="144">
+      <c r="A2" s="145">
         <v>0.0</v>
       </c>
-      <c r="B2" s="145">
+      <c r="B2" s="146">
         <v>5.0</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="144">
+      <c r="D2" s="145">
         <v>0.0</v>
       </c>
-      <c r="E2" s="145">
+      <c r="E2" s="146">
         <v>5.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="146">
+      <c r="A3" s="147">
         <v>75.0</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="146">
         <v>3.0</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="146">
+      <c r="D3" s="147">
         <v>75.0</v>
       </c>
-      <c r="E3" s="145">
+      <c r="E3" s="146">
         <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="146">
+      <c r="A4" s="147">
         <v>76.0</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="146">
         <v>2.75</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="146">
         <v>2.75</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="146">
+      <c r="A5" s="147">
         <v>79.0</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="146">
         <v>2.5</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="146">
         <v>2.5</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="146">
+      <c r="A6" s="147">
         <v>82.0</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="146">
         <v>2.25</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="146">
         <v>2.25</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="147">
+      <c r="A7" s="148">
         <v>85.0</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="149">
         <v>2.0</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="151">
         <v>2.0</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="151">
+      <c r="A8" s="152">
         <v>88.0</v>
       </c>
-      <c r="B8" s="152">
+      <c r="B8" s="153">
         <v>1.75</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="145">
+      <c r="E8" s="146">
         <v>1.75</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="146">
+      <c r="A9" s="147">
         <v>91.0</v>
       </c>
-      <c r="B9" s="145">
+      <c r="B9" s="146">
         <v>1.5</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="145">
+      <c r="E9" s="146">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="146">
+      <c r="A10" s="147">
         <v>94.0</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="146">
         <v>1.25</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="145">
+      <c r="E10" s="146">
         <v>1.25</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="146">
+      <c r="A11" s="147">
         <v>97.0</v>
       </c>
-      <c r="B11" s="145">
+      <c r="B11" s="146">
         <v>1.0</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="146">
         <v>1.0</v>
       </c>
     </row>
